--- a/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.619146577100082</v>
+        <v>3.357065537890264</v>
       </c>
       <c r="C2">
-        <v>0.6442768123607436</v>
+        <v>0.4488390283266881</v>
       </c>
       <c r="D2">
-        <v>0.1983066225206329</v>
+        <v>0.003061359239815431</v>
       </c>
       <c r="E2">
-        <v>0.0606919551968268</v>
+        <v>0.02666652436692107</v>
       </c>
       <c r="F2">
-        <v>6.538381123381129</v>
+        <v>2.642140443097887</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1285594376477697</v>
+        <v>0.07155628871182884</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.255937693328022</v>
       </c>
       <c r="M2">
-        <v>0.7376862272309381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.962408033984872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.241115636966981</v>
+        <v>2.935274264123564</v>
       </c>
       <c r="C3">
-        <v>0.5491944298717613</v>
+        <v>0.3887436587400543</v>
       </c>
       <c r="D3">
-        <v>0.1745461680392992</v>
+        <v>0.002625897114135078</v>
       </c>
       <c r="E3">
-        <v>0.05353681791689624</v>
+        <v>0.02677280194873877</v>
       </c>
       <c r="F3">
-        <v>5.73654638654935</v>
+        <v>2.477875989663019</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1134234849100828</v>
+        <v>0.07239137389420947</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2292585864663579</v>
       </c>
       <c r="M3">
-        <v>0.6320032433201206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.837745497410651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.015409749678895</v>
+        <v>2.680614304203289</v>
       </c>
       <c r="C4">
-        <v>0.4924905106885547</v>
+        <v>0.352213697350436</v>
       </c>
       <c r="D4">
-        <v>0.1603547840528137</v>
+        <v>0.002375469033321309</v>
       </c>
       <c r="E4">
-        <v>0.04928463008801742</v>
+        <v>0.0268567738646599</v>
       </c>
       <c r="F4">
-        <v>5.257735362289168</v>
+        <v>2.382291615181302</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1043987266407242</v>
+        <v>0.07298395547257108</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2132245078407067</v>
       </c>
       <c r="M4">
-        <v>0.5689731921156493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.765261949320646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.924799187898429</v>
+        <v>2.577794309228466</v>
       </c>
       <c r="C5">
-        <v>0.4697351620986865</v>
+        <v>0.3374025077880276</v>
       </c>
       <c r="D5">
-        <v>0.1546548093860878</v>
+        <v>0.002276972815076661</v>
       </c>
       <c r="E5">
-        <v>0.04758261171945577</v>
+        <v>0.02689558794500346</v>
       </c>
       <c r="F5">
-        <v>5.065502695484895</v>
+        <v>2.344557095124927</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1007787090430767</v>
+        <v>0.07324474167303485</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2067692895881379</v>
       </c>
       <c r="M5">
-        <v>0.5436859004382626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.736659200557753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.909829297261666</v>
+        <v>2.560775257022328</v>
       </c>
       <c r="C6">
-        <v>0.4659760337251271</v>
+        <v>0.3349471675338407</v>
       </c>
       <c r="D6">
-        <v>0.1537128971137065</v>
+        <v>0.002260813060769529</v>
       </c>
       <c r="E6">
-        <v>0.04730172479677464</v>
+        <v>0.02690230743296995</v>
       </c>
       <c r="F6">
-        <v>5.033743067316436</v>
+        <v>2.338361769880393</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1001808200565044</v>
+        <v>0.07328918953004759</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2057019310782664</v>
       </c>
       <c r="M6">
-        <v>0.5395091192341397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.731963818348476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.014182513568642</v>
+        <v>2.679223931632407</v>
       </c>
       <c r="C7">
-        <v>0.4921822849833006</v>
+        <v>0.3520136667628435</v>
       </c>
       <c r="D7">
-        <v>0.1602775964972096</v>
+        <v>0.002374127164027406</v>
       </c>
       <c r="E7">
-        <v>0.04926155725532055</v>
+        <v>0.02685727886080969</v>
       </c>
       <c r="F7">
-        <v>5.25513179239357</v>
+        <v>2.381777925380334</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1043496847372865</v>
+        <v>0.07298739533946907</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2131371421129842</v>
       </c>
       <c r="M7">
-        <v>0.5686306336135161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.764872525905815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.487314905092035</v>
+        <v>3.21065260434932</v>
       </c>
       <c r="C8">
-        <v>0.6110994841113495</v>
+        <v>0.4280304295638189</v>
       </c>
       <c r="D8">
-        <v>0.1900207005118517</v>
+        <v>0.002907245293463312</v>
       </c>
       <c r="E8">
-        <v>0.05819257441044812</v>
+        <v>0.02669921365426298</v>
       </c>
       <c r="F8">
-        <v>6.258774633906057</v>
+        <v>2.584338521180598</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1232784159071088</v>
+        <v>0.07182717311806641</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2466613886188185</v>
       </c>
       <c r="M8">
-        <v>0.7008160547899749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.918527764147967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.478851072377211</v>
+        <v>4.293650569816236</v>
       </c>
       <c r="C9">
-        <v>0.861300485575498</v>
+        <v>0.5809196993759258</v>
       </c>
       <c r="D9">
-        <v>0.2523850925084901</v>
+        <v>0.004123420287198698</v>
       </c>
       <c r="E9">
-        <v>0.077071672228886</v>
+        <v>0.02654339629524216</v>
       </c>
       <c r="F9">
-        <v>8.361029834833744</v>
+        <v>3.028875091232948</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1630506421090985</v>
+        <v>0.07022358991525834</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3155811699549815</v>
       </c>
       <c r="M9">
-        <v>0.9784582855817732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.256349646893668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.267776472601554</v>
+        <v>5.124583767436036</v>
       </c>
       <c r="C10">
-        <v>1.061731399010853</v>
+        <v>0.6969896989487552</v>
       </c>
       <c r="D10">
-        <v>0.3021370254823807</v>
+        <v>0.005179538114645332</v>
       </c>
       <c r="E10">
-        <v>0.09218306636818241</v>
+        <v>0.02653179485432222</v>
       </c>
       <c r="F10">
-        <v>10.03197577778684</v>
+        <v>3.392852420744191</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.194753861138949</v>
+        <v>0.06951396033214507</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3688229094814801</v>
       </c>
       <c r="M10">
-        <v>1.199822158202053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.533506103099924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.645973285259686</v>
+        <v>5.512926492052827</v>
       </c>
       <c r="C11">
-        <v>1.158320911843759</v>
+        <v>0.7509738022621377</v>
       </c>
       <c r="D11">
-        <v>0.3260421323561928</v>
+        <v>0.005711095622871198</v>
       </c>
       <c r="E11">
-        <v>0.09944253584027152</v>
+        <v>0.02655118688880886</v>
       </c>
       <c r="F11">
-        <v>10.83222906691594</v>
+        <v>3.568751057826063</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2099604135220048</v>
+        <v>0.06930802572519212</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3937825608487344</v>
       </c>
       <c r="M11">
-        <v>1.306055161239129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.667610269399574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.792618854511602</v>
+        <v>5.661726968701089</v>
       </c>
       <c r="C12">
-        <v>1.195868373140229</v>
+        <v>0.7716219979656671</v>
       </c>
       <c r="D12">
-        <v>0.3353215870591697</v>
+        <v>0.005921320970351474</v>
       </c>
       <c r="E12">
-        <v>0.1022590539737607</v>
+        <v>0.02656230537962045</v>
       </c>
       <c r="F12">
-        <v>11.1423690899104</v>
+        <v>3.63705603504431</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2158573864404048</v>
+        <v>0.06924831406320564</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4033570853396071</v>
       </c>
       <c r="M12">
-        <v>1.347264888205089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.719712999092351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.760871530397196</v>
+        <v>5.629598137229777</v>
       </c>
       <c r="C13">
-        <v>1.187735110646202</v>
+        <v>0.7671652779815474</v>
       </c>
       <c r="D13">
-        <v>0.3333121821001868</v>
+        <v>0.005875619692340628</v>
       </c>
       <c r="E13">
-        <v>0.1016492423297066</v>
+        <v>0.02655973893520347</v>
       </c>
       <c r="F13">
-        <v>11.07523471455505</v>
+        <v>3.622266232269425</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2145807334445351</v>
+        <v>0.069260336029771</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4012892904308671</v>
       </c>
       <c r="M13">
-        <v>1.338342569161313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.708430124716998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.657964881163252</v>
+        <v>5.52513186651521</v>
       </c>
       <c r="C14">
-        <v>1.16138923761045</v>
+        <v>0.7526682006880208</v>
       </c>
       <c r="D14">
-        <v>0.3268007197345497</v>
+        <v>0.005728201886392448</v>
       </c>
       <c r="E14">
-        <v>0.09967282062068605</v>
+        <v>0.02655202453335992</v>
       </c>
       <c r="F14">
-        <v>10.85759349097026</v>
+        <v>3.574335246367184</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2104426160841797</v>
+        <v>0.06930273795343567</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3945676984695581</v>
       </c>
       <c r="M14">
-        <v>1.309424624473181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.671869295429659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.595400239520643</v>
+        <v>5.461378490665027</v>
       </c>
       <c r="C15">
-        <v>1.145384574540714</v>
+        <v>0.7438162322269477</v>
       </c>
       <c r="D15">
-        <v>0.3228433106569213</v>
+        <v>0.005639119430489892</v>
       </c>
       <c r="E15">
-        <v>0.09847140162105461</v>
+        <v>0.0265477981874378</v>
       </c>
       <c r="F15">
-        <v>10.72525117815809</v>
+        <v>3.54520376075979</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2079268064328978</v>
+        <v>0.06933113654094214</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3904670539925803</v>
       </c>
       <c r="M15">
-        <v>1.291845600706424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.649652010786994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.243501709563134</v>
+        <v>5.099433951802951</v>
       </c>
       <c r="C16">
-        <v>1.055543471962778</v>
+        <v>0.6934884399560133</v>
       </c>
       <c r="D16">
-        <v>0.3006039388099992</v>
+        <v>0.005145958004223239</v>
       </c>
       <c r="E16">
-        <v>0.09171737381338474</v>
+        <v>0.02653104269646001</v>
       </c>
       <c r="F16">
-        <v>9.980592332084683</v>
+        <v>3.381582213424679</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1937779452771444</v>
+        <v>0.06952989146549982</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3672079820990035</v>
       </c>
       <c r="M16">
-        <v>1.19300591713052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.524917284624621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.032991762931317</v>
+        <v>4.880214298078215</v>
       </c>
       <c r="C17">
-        <v>1.001939302628358</v>
+        <v>0.6629407466476778</v>
       </c>
       <c r="D17">
-        <v>0.2873153123433667</v>
+        <v>0.004857562705946172</v>
       </c>
       <c r="E17">
-        <v>0.08768052044971597</v>
+        <v>0.02652723442254512</v>
       </c>
       <c r="F17">
-        <v>9.534908952472307</v>
+        <v>3.283991693227733</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.185315721619137</v>
+        <v>0.06968274079347481</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3531398124945611</v>
       </c>
       <c r="M17">
-        <v>1.133908370999556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.450563481812623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.913683247881465</v>
+        <v>4.755081699616198</v>
       </c>
       <c r="C18">
-        <v>0.97160331087332</v>
+        <v>0.6454795081710074</v>
       </c>
       <c r="D18">
-        <v>0.2797887180133927</v>
+        <v>0.004696388715891509</v>
       </c>
       <c r="E18">
-        <v>0.08539403248594013</v>
+        <v>0.02652735064625311</v>
       </c>
       <c r="F18">
-        <v>9.282247006686418</v>
+        <v>3.228817717824825</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1805205047942167</v>
+        <v>0.0697815589668096</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3451166938048402</v>
       </c>
       <c r="M18">
-        <v>1.100424679880227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.408541249656395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.873573951271965</v>
+        <v>4.712871026481025</v>
       </c>
       <c r="C19">
-        <v>0.9614120072032222</v>
+        <v>0.6395851497607339</v>
       </c>
       <c r="D19">
-        <v>0.2772591852846773</v>
+        <v>0.004642581570065474</v>
       </c>
       <c r="E19">
-        <v>0.08462561800877921</v>
+        <v>0.02652777973727449</v>
       </c>
       <c r="F19">
-        <v>9.197296501814748</v>
+        <v>3.210295213065933</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1789085985349992</v>
+        <v>0.06981684814290645</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3424115046271794</v>
       </c>
       <c r="M19">
-        <v>1.089169834970384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.394436324176709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.055213299039735</v>
+        <v>4.903449840142741</v>
       </c>
       <c r="C20">
-        <v>1.007592993128952</v>
+        <v>0.6661810798179886</v>
       </c>
       <c r="D20">
-        <v>0.2887175443460848</v>
+        <v>0.004887765428509994</v>
       </c>
       <c r="E20">
-        <v>0.08810650643620832</v>
+        <v>0.02652739954285011</v>
       </c>
       <c r="F20">
-        <v>9.581962740951781</v>
+        <v>3.294279828414261</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1862089153802451</v>
+        <v>0.06966533126261609</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3546301890588097</v>
       </c>
       <c r="M20">
-        <v>1.140145645174577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.45840042233354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.688092011752985</v>
+        <v>5.55576661463067</v>
       </c>
       <c r="C21">
-        <v>1.169099544366333</v>
+        <v>0.7569204568768555</v>
       </c>
       <c r="D21">
-        <v>0.3287067304958242</v>
+        <v>0.005771245617017584</v>
       </c>
       <c r="E21">
-        <v>0.1002514016353473</v>
+        <v>0.02655418600651238</v>
       </c>
       <c r="F21">
-        <v>10.92131521226378</v>
+        <v>3.588365883105439</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2116540871901016</v>
+        <v>0.06928977497647892</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3965385166608399</v>
       </c>
       <c r="M21">
-        <v>1.317890197179665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.682570822881189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.122129227171399</v>
+        <v>5.992400586600752</v>
       </c>
       <c r="C22">
-        <v>1.280438269013644</v>
+        <v>0.8174424204534319</v>
       </c>
       <c r="D22">
-        <v>0.3561938136621023</v>
+        <v>0.006401671408392318</v>
       </c>
       <c r="E22">
-        <v>0.108589985848262</v>
+        <v>0.02659382732615168</v>
       </c>
       <c r="F22">
-        <v>11.83889651514733</v>
+        <v>3.790573258486177</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2291080715183611</v>
+        <v>0.06915165101849752</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4246533821237506</v>
       </c>
       <c r="M22">
-        <v>1.43989678028602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.836869703628224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.888350948824268</v>
+        <v>5.758323911855484</v>
       </c>
       <c r="C23">
-        <v>1.220409303056158</v>
+        <v>0.7850161574613708</v>
       </c>
       <c r="D23">
-        <v>0.3413824870345081</v>
+        <v>0.006059755415592782</v>
       </c>
       <c r="E23">
-        <v>0.1040980902206954</v>
+        <v>0.02657056061095275</v>
       </c>
       <c r="F23">
-        <v>11.3447815666259</v>
+        <v>3.681658336011623</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2197070868109066</v>
+        <v>0.06921501454757717</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4095755407715131</v>
       </c>
       <c r="M23">
-        <v>1.374172277663988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.753743542265113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.045161643551978</v>
+        <v>4.892942268078002</v>
       </c>
       <c r="C24">
-        <v>1.005035473026908</v>
+        <v>0.6647158130945456</v>
       </c>
       <c r="D24">
-        <v>0.2880832458182851</v>
+        <v>0.004874096477482048</v>
       </c>
       <c r="E24">
-        <v>0.08791381205007198</v>
+        <v>0.02652731772713768</v>
       </c>
       <c r="F24">
-        <v>9.56067870815798</v>
+        <v>3.289625674785327</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1858048868500113</v>
+        <v>0.06967316813454261</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3539561890077181</v>
       </c>
       <c r="M24">
-        <v>1.137324253661781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.454855096355345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.201791324440308</v>
+        <v>3.995300218351133</v>
       </c>
       <c r="C25">
-        <v>0.7912182848102702</v>
+        <v>0.5390144426269501</v>
       </c>
       <c r="D25">
-        <v>0.2349448945378612</v>
+        <v>0.003770601559983433</v>
       </c>
       <c r="E25">
-        <v>0.07178017957332372</v>
+        <v>0.02656819330191151</v>
       </c>
       <c r="F25">
-        <v>7.773802880358971</v>
+        <v>2.902728306909751</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1519266938178241</v>
+        <v>0.07057979399964864</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2965318365204865</v>
       </c>
       <c r="M25">
-        <v>0.9008063724201918</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.160405747132302</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357065537890264</v>
+        <v>1.596101234264466</v>
       </c>
       <c r="C2">
-        <v>0.4488390283266881</v>
+        <v>0.2731913093819287</v>
       </c>
       <c r="D2">
-        <v>0.003061359239815431</v>
+        <v>0.05397128416311148</v>
       </c>
       <c r="E2">
-        <v>0.02666652436692107</v>
+        <v>0.1192202541705001</v>
       </c>
       <c r="F2">
-        <v>2.642140443097887</v>
+        <v>2.394210455994397</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07155628871182884</v>
+        <v>0.2179798651266651</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.775100900681849</v>
       </c>
       <c r="L2">
-        <v>0.255937693328022</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.921849194604192</v>
       </c>
       <c r="O2">
-        <v>1.962408033984872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.935274264123564</v>
+        <v>1.396107494784189</v>
       </c>
       <c r="C3">
-        <v>0.3887436587400543</v>
+        <v>0.2372705606665164</v>
       </c>
       <c r="D3">
-        <v>0.002625897114135078</v>
+        <v>0.04676329803615431</v>
       </c>
       <c r="E3">
-        <v>0.02677280194873877</v>
+        <v>0.1055307986993093</v>
       </c>
       <c r="F3">
-        <v>2.477875989663019</v>
+        <v>2.244529043781327</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07239137389420947</v>
+        <v>0.1954247895648962</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.550021193820953</v>
       </c>
       <c r="L3">
-        <v>0.2292585864663579</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.92981260603095</v>
       </c>
       <c r="O3">
-        <v>1.837745497410651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.680614304203289</v>
+        <v>1.275445423030106</v>
       </c>
       <c r="C4">
-        <v>0.352213697350436</v>
+        <v>0.215604973793333</v>
       </c>
       <c r="D4">
-        <v>0.002375469033321309</v>
+        <v>0.0423775046532171</v>
       </c>
       <c r="E4">
-        <v>0.0268567738646599</v>
+        <v>0.09729636655087148</v>
       </c>
       <c r="F4">
-        <v>2.382291615181302</v>
+        <v>2.156474967621804</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07298395547257108</v>
+        <v>0.1819324795025565</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.414230699656599</v>
       </c>
       <c r="L4">
-        <v>0.2132245078407067</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.93676258870218</v>
       </c>
       <c r="O4">
-        <v>1.765261949320646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.577794309228466</v>
+        <v>1.2267516353308</v>
       </c>
       <c r="C5">
-        <v>0.3374025077880276</v>
+        <v>0.2068621513681137</v>
       </c>
       <c r="D5">
-        <v>0.002276972815076661</v>
+        <v>0.0405989962595612</v>
       </c>
       <c r="E5">
-        <v>0.02689558794500346</v>
+        <v>0.0939794787421846</v>
       </c>
       <c r="F5">
-        <v>2.344557095124927</v>
+        <v>2.121486554972236</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07324474167303485</v>
+        <v>0.1765153784392695</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.359431822920072</v>
       </c>
       <c r="L5">
-        <v>0.2067692895881379</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.940086480103076</v>
       </c>
       <c r="O5">
-        <v>1.736659200557753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.560775257022328</v>
+        <v>1.2186932106369</v>
       </c>
       <c r="C6">
-        <v>0.3349471675338407</v>
+        <v>0.2054152788678039</v>
       </c>
       <c r="D6">
-        <v>0.002260813060769529</v>
+        <v>0.04030416770547873</v>
       </c>
       <c r="E6">
-        <v>0.02690230743296995</v>
+        <v>0.0934309308955541</v>
       </c>
       <c r="F6">
-        <v>2.338361769880393</v>
+        <v>2.115728710368032</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07328918953004759</v>
+        <v>0.1756205347361401</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.350363014626737</v>
       </c>
       <c r="L6">
-        <v>0.2057019310782664</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.940667374068681</v>
       </c>
       <c r="O6">
-        <v>1.731963818348476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.679223931632407</v>
+        <v>1.274786866215095</v>
       </c>
       <c r="C7">
-        <v>0.3520136667628435</v>
+        <v>0.2154867316479852</v>
       </c>
       <c r="D7">
-        <v>0.002374127164027406</v>
+        <v>0.04235348534281513</v>
       </c>
       <c r="E7">
-        <v>0.02685727886080969</v>
+        <v>0.09725148253259874</v>
       </c>
       <c r="F7">
-        <v>2.381777925380334</v>
+        <v>2.155999574377873</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07298739533946907</v>
+        <v>0.1818591049489982</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.413489576654968</v>
       </c>
       <c r="L7">
-        <v>0.2131371421129842</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.936805458351671</v>
       </c>
       <c r="O7">
-        <v>1.764872525905815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.21065260434932</v>
+        <v>1.526662821644749</v>
       </c>
       <c r="C8">
-        <v>0.4280304295638189</v>
+        <v>0.2607174100097325</v>
       </c>
       <c r="D8">
-        <v>0.002907245293463312</v>
+        <v>0.05147686329401324</v>
       </c>
       <c r="E8">
-        <v>0.02669921365426298</v>
+        <v>0.1144619725509806</v>
       </c>
       <c r="F8">
-        <v>2.584338521180598</v>
+        <v>2.341754724325739</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07182717311806641</v>
+        <v>0.2101235131822534</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.696950137896891</v>
       </c>
       <c r="L8">
-        <v>0.2466613886188185</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.924150818394907</v>
       </c>
       <c r="O8">
-        <v>1.918527764147967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.293650569816236</v>
+        <v>2.040494913621728</v>
       </c>
       <c r="C9">
-        <v>0.5809196993759258</v>
+        <v>0.3531028880767622</v>
       </c>
       <c r="D9">
-        <v>0.004123420287198698</v>
+        <v>0.06974961284418413</v>
       </c>
       <c r="E9">
-        <v>0.02654339629524216</v>
+        <v>0.1497797923887063</v>
       </c>
       <c r="F9">
-        <v>3.028875091232948</v>
+        <v>2.740234093350722</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07022358991525834</v>
+        <v>0.2688023683855647</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.275353075355554</v>
       </c>
       <c r="L9">
-        <v>0.3155811699549815</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.91698571427203</v>
       </c>
       <c r="O9">
-        <v>2.256349646893668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.124583767436036</v>
+        <v>2.434713801934549</v>
       </c>
       <c r="C10">
-        <v>0.6969896989487552</v>
+        <v>0.4241480279352743</v>
       </c>
       <c r="D10">
-        <v>0.005179538114645332</v>
+        <v>0.08350773695366343</v>
       </c>
       <c r="E10">
-        <v>0.02653179485432222</v>
+        <v>0.1770100501463574</v>
       </c>
       <c r="F10">
-        <v>3.392852420744191</v>
+        <v>3.059490996400967</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06951396033214507</v>
+        <v>0.3145488884305934</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.719325772127405</v>
       </c>
       <c r="L10">
-        <v>0.3688229094814801</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.924486019382314</v>
       </c>
       <c r="O10">
-        <v>2.533506103099924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.512926492052827</v>
+        <v>2.618832992738874</v>
       </c>
       <c r="C11">
-        <v>0.7509738022621377</v>
+        <v>0.457390128572456</v>
       </c>
       <c r="D11">
-        <v>0.005711095622871198</v>
+        <v>0.08986415097484723</v>
       </c>
       <c r="E11">
-        <v>0.02655118688880886</v>
+        <v>0.1897583298864873</v>
       </c>
       <c r="F11">
-        <v>3.568751057826063</v>
+        <v>3.211903572221559</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06930802572519212</v>
+        <v>0.3360969499768487</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.926762125733262</v>
       </c>
       <c r="L11">
-        <v>0.3937825608487344</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.931177413074451</v>
       </c>
       <c r="O11">
-        <v>2.667610269399574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.661726968701089</v>
+        <v>2.68935053432881</v>
       </c>
       <c r="C12">
-        <v>0.7716219979656671</v>
+        <v>0.4701329050223251</v>
       </c>
       <c r="D12">
-        <v>0.005921320970351474</v>
+        <v>0.09228755329810667</v>
       </c>
       <c r="E12">
-        <v>0.02656230537962045</v>
+        <v>0.1946453990849761</v>
       </c>
       <c r="F12">
-        <v>3.63705603504431</v>
+        <v>3.270784863855397</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06924831406320564</v>
+        <v>0.344378227100421</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.006224769922312</v>
       </c>
       <c r="L12">
-        <v>0.4033570853396071</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.934231134124815</v>
       </c>
       <c r="O12">
-        <v>2.719712999092351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.629598137229777</v>
+        <v>2.674126096003306</v>
       </c>
       <c r="C13">
-        <v>0.7671652779815474</v>
+        <v>0.4673812614484802</v>
       </c>
       <c r="D13">
-        <v>0.005875619692340628</v>
+        <v>0.09176486290269281</v>
       </c>
       <c r="E13">
-        <v>0.02655973893520347</v>
+        <v>0.193590100654518</v>
       </c>
       <c r="F13">
-        <v>3.622266232269425</v>
+        <v>3.258049578828434</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.069260336029771</v>
+        <v>0.3425890378466363</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.989068417090095</v>
       </c>
       <c r="L13">
-        <v>0.4012892904308671</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.933549511159569</v>
       </c>
       <c r="O13">
-        <v>2.708430124716998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.52513186651521</v>
+        <v>2.624617910327629</v>
       </c>
       <c r="C14">
-        <v>0.7526682006880208</v>
+        <v>0.4584352486833154</v>
       </c>
       <c r="D14">
-        <v>0.005728201886392448</v>
+        <v>0.09006318362312982</v>
       </c>
       <c r="E14">
-        <v>0.02655202453335992</v>
+        <v>0.1901591511818594</v>
       </c>
       <c r="F14">
-        <v>3.574335246367184</v>
+        <v>3.216723585238924</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06930273795343567</v>
+        <v>0.3367757260782724</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.93328054433394</v>
       </c>
       <c r="L14">
-        <v>0.3945676984695581</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.931417929538156</v>
       </c>
       <c r="O14">
-        <v>2.671869295429659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.461378490665027</v>
+        <v>2.594399718744853</v>
       </c>
       <c r="C15">
-        <v>0.7438162322269477</v>
+        <v>0.4529764018664366</v>
       </c>
       <c r="D15">
-        <v>0.005639119430489892</v>
+        <v>0.08902306006157801</v>
       </c>
       <c r="E15">
-        <v>0.0265477981874378</v>
+        <v>0.1880655954059378</v>
       </c>
       <c r="F15">
-        <v>3.54520376075979</v>
+        <v>3.191566282336368</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06933113654094214</v>
+        <v>0.3332312145254832</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.899231433365202</v>
       </c>
       <c r="L15">
-        <v>0.3904670539925803</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.9301815011478</v>
       </c>
       <c r="O15">
-        <v>2.649652010786994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.099433951802951</v>
+        <v>2.422786400896143</v>
       </c>
       <c r="C16">
-        <v>0.6934884399560133</v>
+        <v>0.4219959752827833</v>
       </c>
       <c r="D16">
-        <v>0.005145958004223239</v>
+        <v>0.08309448934602415</v>
       </c>
       <c r="E16">
-        <v>0.02653104269646001</v>
+        <v>0.1761848206127326</v>
       </c>
       <c r="F16">
-        <v>3.381582213424679</v>
+        <v>3.049686031836984</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06952989146549982</v>
+        <v>0.3131567945377043</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.705889712763252</v>
       </c>
       <c r="L16">
-        <v>0.3672079820990035</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.924118710459368</v>
       </c>
       <c r="O16">
-        <v>2.524917284624621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.880214298078215</v>
+        <v>2.318805843382734</v>
       </c>
       <c r="C17">
-        <v>0.6629407466476778</v>
+        <v>0.4032417870923837</v>
       </c>
       <c r="D17">
-        <v>0.004857562705946172</v>
+        <v>0.07948410978820419</v>
       </c>
       <c r="E17">
-        <v>0.02652723442254512</v>
+        <v>0.1689940129126271</v>
       </c>
       <c r="F17">
-        <v>3.283991693227733</v>
+        <v>2.964576525018401</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06968274079347481</v>
+        <v>0.3010411627082874</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.58876614726239</v>
       </c>
       <c r="L17">
-        <v>0.3531398124945611</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.921271942061608</v>
       </c>
       <c r="O17">
-        <v>2.450563481812623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.755081699616198</v>
+        <v>2.259442464554411</v>
       </c>
       <c r="C18">
-        <v>0.6454795081710074</v>
+        <v>0.3925403233151314</v>
       </c>
       <c r="D18">
-        <v>0.004696388715891509</v>
+        <v>0.07741656590502544</v>
       </c>
       <c r="E18">
-        <v>0.02652735064625311</v>
+        <v>0.1648915333295875</v>
       </c>
       <c r="F18">
-        <v>3.228817717824825</v>
+        <v>2.916290872812368</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0697815589668096</v>
+        <v>0.2941409911811803</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.521906494798031</v>
       </c>
       <c r="L18">
-        <v>0.3451166938048402</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.919940035155435</v>
       </c>
       <c r="O18">
-        <v>2.408541249656395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.712871026481025</v>
+        <v>2.239416139718514</v>
       </c>
       <c r="C19">
-        <v>0.6395851497607339</v>
+        <v>0.3889310402265664</v>
       </c>
       <c r="D19">
-        <v>0.004642581570065474</v>
+        <v>0.07671801929505762</v>
       </c>
       <c r="E19">
-        <v>0.02652777973727449</v>
+        <v>0.1635080356572658</v>
       </c>
       <c r="F19">
-        <v>3.210295213065933</v>
+        <v>2.900052932896926</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06981684814290645</v>
+        <v>0.2918160214068308</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.499352434903926</v>
       </c>
       <c r="L19">
-        <v>0.3424115046271794</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.919540160065807</v>
       </c>
       <c r="O19">
-        <v>2.394436324176709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.903449840142741</v>
+        <v>2.329828113364044</v>
       </c>
       <c r="C20">
-        <v>0.6661810798179886</v>
+        <v>0.4052292079819892</v>
       </c>
       <c r="D20">
-        <v>0.004887765428509994</v>
+        <v>0.07986748819794798</v>
       </c>
       <c r="E20">
-        <v>0.02652739954285011</v>
+        <v>0.1697559686431802</v>
       </c>
       <c r="F20">
-        <v>3.294279828414261</v>
+        <v>2.973566618625654</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06966533126261609</v>
+        <v>0.3023237051931318</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.601180851094085</v>
       </c>
       <c r="L20">
-        <v>0.3546301890588097</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.921543037697006</v>
       </c>
       <c r="O20">
-        <v>2.45840042233354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.55576661463067</v>
+        <v>2.639137156567131</v>
       </c>
       <c r="C21">
-        <v>0.7569204568768555</v>
+        <v>0.4610585226242847</v>
       </c>
       <c r="D21">
-        <v>0.005771245617017584</v>
+        <v>0.09056254425951238</v>
       </c>
       <c r="E21">
-        <v>0.02655418600651238</v>
+        <v>0.1911652221545026</v>
       </c>
       <c r="F21">
-        <v>3.588365883105439</v>
+        <v>3.228829248206523</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06928977497647892</v>
+        <v>0.3384798076639726</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.949641008609092</v>
       </c>
       <c r="L21">
-        <v>0.3965385166608399</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.932029505627767</v>
       </c>
       <c r="O21">
-        <v>2.682570822881189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.992400586600752</v>
+        <v>2.845984802318355</v>
       </c>
       <c r="C22">
-        <v>0.8174424204534319</v>
+        <v>0.498460153155122</v>
       </c>
       <c r="D22">
-        <v>0.006401671408392318</v>
+        <v>0.09764903607107556</v>
       </c>
       <c r="E22">
-        <v>0.02659382732615168</v>
+        <v>0.2055088406041818</v>
       </c>
       <c r="F22">
-        <v>3.790573258486177</v>
+        <v>3.402527639274894</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06915165101849752</v>
+        <v>0.3628265581417338</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.182758296860243</v>
       </c>
       <c r="L22">
-        <v>0.4246533821237506</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.941939678297345</v>
       </c>
       <c r="O22">
-        <v>2.836869703628224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.758323911855484</v>
+        <v>2.735117886534738</v>
       </c>
       <c r="C23">
-        <v>0.7850161574613708</v>
+        <v>0.4784066166693322</v>
       </c>
       <c r="D23">
-        <v>0.006059755415592782</v>
+        <v>0.09385716825924817</v>
       </c>
       <c r="E23">
-        <v>0.02657056061095275</v>
+        <v>0.1978184648706005</v>
       </c>
       <c r="F23">
-        <v>3.681658336011623</v>
+        <v>3.30914478416787</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06921501454757717</v>
+        <v>0.3497610952208703</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.057802163633028</v>
       </c>
       <c r="L23">
-        <v>0.4095755407715131</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.93635327449941</v>
       </c>
       <c r="O23">
-        <v>2.753743542265113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.892942268078002</v>
+        <v>2.324843655972813</v>
       </c>
       <c r="C24">
-        <v>0.6647158130945456</v>
+        <v>0.4043304456693591</v>
       </c>
       <c r="D24">
-        <v>0.004874096477482048</v>
+        <v>0.07969413772465828</v>
       </c>
       <c r="E24">
-        <v>0.02652731772713768</v>
+        <v>0.1694113905614216</v>
       </c>
       <c r="F24">
-        <v>3.289625674785327</v>
+        <v>2.969500198356428</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06967316813454261</v>
+        <v>0.3017436655867698</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.595566689305457</v>
       </c>
       <c r="L24">
-        <v>0.3539561890077181</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.921419529746274</v>
       </c>
       <c r="O24">
-        <v>2.454855096355345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.995300218351133</v>
+        <v>1.898913999744053</v>
       </c>
       <c r="C25">
-        <v>0.5390144426269501</v>
+        <v>0.3276259672062452</v>
       </c>
       <c r="D25">
-        <v>0.003770601559983433</v>
+        <v>0.06475568843902124</v>
       </c>
       <c r="E25">
-        <v>0.02656819330191151</v>
+        <v>0.1400257571230199</v>
       </c>
       <c r="F25">
-        <v>2.902728306909751</v>
+        <v>2.628224113962546</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07057979399964864</v>
+        <v>0.2525165721299629</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.115953545719151</v>
       </c>
       <c r="L25">
-        <v>0.2965318365204865</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.916840030944655</v>
       </c>
       <c r="O25">
-        <v>2.160405747132302</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.596101234264466</v>
+        <v>1.136730802769335</v>
       </c>
       <c r="C2">
-        <v>0.2731913093819287</v>
+        <v>0.1710915350730886</v>
       </c>
       <c r="D2">
-        <v>0.05397128416311148</v>
+        <v>0.05164015962813551</v>
       </c>
       <c r="E2">
-        <v>0.1192202541705001</v>
+        <v>0.1237518460948479</v>
       </c>
       <c r="F2">
-        <v>2.394210455994397</v>
+        <v>3.297848894863449</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2179798651266651</v>
+        <v>0.226129125654424</v>
       </c>
       <c r="K2">
-        <v>1.775100900681849</v>
+        <v>1.229727015956598</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.921849194604192</v>
+        <v>3.111090195120568</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.396107494784189</v>
+        <v>1.090893794756511</v>
       </c>
       <c r="C3">
-        <v>0.2372705606665164</v>
+        <v>0.1629003829942803</v>
       </c>
       <c r="D3">
-        <v>0.04676329803615431</v>
+        <v>0.05030122963908212</v>
       </c>
       <c r="E3">
-        <v>0.1055307986993093</v>
+        <v>0.1211336060323056</v>
       </c>
       <c r="F3">
-        <v>2.244529043781327</v>
+        <v>3.27336112416242</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1954247895648962</v>
+        <v>0.2216855784172935</v>
       </c>
       <c r="K3">
-        <v>1.550021193820953</v>
+        <v>1.178190574632595</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.92981260603095</v>
+        <v>3.116910752226474</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.275445423030106</v>
+        <v>1.063452048856703</v>
       </c>
       <c r="C4">
-        <v>0.215604973793333</v>
+        <v>0.1579826333693006</v>
       </c>
       <c r="D4">
-        <v>0.0423775046532171</v>
+        <v>0.04951307680556027</v>
       </c>
       <c r="E4">
-        <v>0.09729636655087148</v>
+        <v>0.1195983299881931</v>
       </c>
       <c r="F4">
-        <v>2.156474967621804</v>
+        <v>3.259770387011159</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1819324795025565</v>
+        <v>0.2190838162325051</v>
       </c>
       <c r="K4">
-        <v>1.414230699656599</v>
+        <v>1.147316752513689</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.93676258870218</v>
+        <v>3.121222168917527</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.2267516353308</v>
+        <v>1.052445612451834</v>
       </c>
       <c r="C5">
-        <v>0.2068621513681137</v>
+        <v>0.1560065759220208</v>
       </c>
       <c r="D5">
-        <v>0.0405989962595612</v>
+        <v>0.04920046178716575</v>
       </c>
       <c r="E5">
-        <v>0.0939794787421846</v>
+        <v>0.1189908644581266</v>
       </c>
       <c r="F5">
-        <v>2.121486554972236</v>
+        <v>3.25459483534442</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1765153784392695</v>
+        <v>0.2180553356912327</v>
       </c>
       <c r="K5">
-        <v>1.359431822920072</v>
+        <v>1.13492855028926</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.940086480103076</v>
+        <v>3.123164253034929</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.2186932106369</v>
+        <v>1.050628641023849</v>
       </c>
       <c r="C6">
-        <v>0.2054152788678039</v>
+        <v>0.1556801389637457</v>
       </c>
       <c r="D6">
-        <v>0.04030416770547873</v>
+        <v>0.04914907027839632</v>
       </c>
       <c r="E6">
-        <v>0.0934309308955541</v>
+        <v>0.1188910923315092</v>
       </c>
       <c r="F6">
-        <v>2.115728710368032</v>
+        <v>3.253757334788006</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1756205347361401</v>
+        <v>0.2178864732843309</v>
       </c>
       <c r="K6">
-        <v>1.350363014626737</v>
+        <v>1.132883151052397</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.940667374068681</v>
+        <v>3.123497907706479</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.274786866215095</v>
+        <v>1.063302898798753</v>
       </c>
       <c r="C7">
-        <v>0.2154867316479852</v>
+        <v>0.1579558704803077</v>
       </c>
       <c r="D7">
-        <v>0.04235348534281513</v>
+        <v>0.04950882606201645</v>
       </c>
       <c r="E7">
-        <v>0.09725148253259874</v>
+        <v>0.1195900639395902</v>
       </c>
       <c r="F7">
-        <v>2.155999574377873</v>
+        <v>3.259699119536137</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1818591049489982</v>
+        <v>0.2190698172906878</v>
       </c>
       <c r="K7">
-        <v>1.413489576654968</v>
+        <v>1.147148899472512</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.936805458351671</v>
+        <v>3.121247611338802</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.526662821644749</v>
+        <v>1.120780216510354</v>
       </c>
       <c r="C8">
-        <v>0.2607174100097325</v>
+        <v>0.1682439829780265</v>
       </c>
       <c r="D8">
-        <v>0.05147686329401324</v>
+        <v>0.05117146351055624</v>
       </c>
       <c r="E8">
-        <v>0.1144619725509806</v>
+        <v>0.1228340523967653</v>
       </c>
       <c r="F8">
-        <v>2.341754724325739</v>
+        <v>3.289105292169026</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2101235131822534</v>
+        <v>0.2245706690114986</v>
       </c>
       <c r="K8">
-        <v>1.696950137896891</v>
+        <v>1.211797204968917</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.924150818394907</v>
+        <v>3.112943843857465</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.040494913621728</v>
+        <v>1.239088032940288</v>
       </c>
       <c r="C9">
-        <v>0.3531028880767622</v>
+        <v>0.1893111294020855</v>
       </c>
       <c r="D9">
-        <v>0.06974961284418413</v>
+        <v>0.0547004706563925</v>
       </c>
       <c r="E9">
-        <v>0.1497797923887063</v>
+        <v>0.1297707430805914</v>
       </c>
       <c r="F9">
-        <v>2.740234093350722</v>
+        <v>3.358265995471655</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2688023683855647</v>
+        <v>0.2363665225199583</v>
       </c>
       <c r="K9">
-        <v>2.275353075355554</v>
+        <v>1.344708142913817</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.91698571427203</v>
+        <v>3.10252808668659</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.434713801934549</v>
+        <v>1.329461333774304</v>
       </c>
       <c r="C10">
-        <v>0.4241480279352743</v>
+        <v>0.205343685082056</v>
       </c>
       <c r="D10">
-        <v>0.08350773695366343</v>
+        <v>0.05745622924138871</v>
       </c>
       <c r="E10">
-        <v>0.1770100501463574</v>
+        <v>0.1352203846030164</v>
       </c>
       <c r="F10">
-        <v>3.059490996400967</v>
+        <v>3.41613906527553</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3145488884305934</v>
+        <v>0.2456550031429572</v>
       </c>
       <c r="K10">
-        <v>2.719325772127405</v>
+        <v>1.446149712523209</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.924486019382314</v>
+        <v>3.098476087102441</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.618832992738874</v>
+        <v>1.371333998530247</v>
       </c>
       <c r="C11">
-        <v>0.457390128572456</v>
+        <v>0.2127601558477181</v>
       </c>
       <c r="D11">
-        <v>0.08986415097484723</v>
+        <v>0.0587451651277533</v>
       </c>
       <c r="E11">
-        <v>0.1897583298864873</v>
+        <v>0.1377768884715493</v>
       </c>
       <c r="F11">
-        <v>3.211903572221559</v>
+        <v>3.444012401755089</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3360969499768487</v>
+        <v>0.2500172867450203</v>
       </c>
       <c r="K11">
-        <v>2.926762125733262</v>
+        <v>1.493133486145297</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.931177413074451</v>
+        <v>3.097419738053659</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.68935053432881</v>
+        <v>1.387300156466438</v>
       </c>
       <c r="C12">
-        <v>0.4701329050223251</v>
+        <v>0.215586455195421</v>
       </c>
       <c r="D12">
-        <v>0.09228755329810667</v>
+        <v>0.05923831415212533</v>
       </c>
       <c r="E12">
-        <v>0.1946453990849761</v>
+        <v>0.1387561407712994</v>
       </c>
       <c r="F12">
-        <v>3.270784863855397</v>
+        <v>3.454790530479585</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.344378227100421</v>
+        <v>0.2516889667091675</v>
       </c>
       <c r="K12">
-        <v>3.006224769922312</v>
+        <v>1.511046184117447</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.934231134124815</v>
+        <v>3.097133297988236</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.674126096003306</v>
+        <v>1.38385666485965</v>
       </c>
       <c r="C13">
-        <v>0.4673812614484802</v>
+        <v>0.2149769654069189</v>
       </c>
       <c r="D13">
-        <v>0.09176486290269281</v>
+        <v>0.05913188113790113</v>
       </c>
       <c r="E13">
-        <v>0.193590100654518</v>
+        <v>0.1385447445302077</v>
       </c>
       <c r="F13">
-        <v>3.258049578828434</v>
+        <v>3.452459333764835</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3425890378466363</v>
+        <v>0.2513280594320548</v>
       </c>
       <c r="K13">
-        <v>2.989068417090095</v>
+        <v>1.507182975654189</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.933549511159569</v>
+        <v>3.097189929922308</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.624617910327629</v>
+        <v>1.37264533928726</v>
       </c>
       <c r="C14">
-        <v>0.4584352486833154</v>
+        <v>0.2129923188485918</v>
       </c>
       <c r="D14">
-        <v>0.09006318362312982</v>
+        <v>0.05878563557532601</v>
       </c>
       <c r="E14">
-        <v>0.1901591511818594</v>
+        <v>0.1378572283441031</v>
       </c>
       <c r="F14">
-        <v>3.216723585238924</v>
+        <v>3.444894649531932</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3367757260782724</v>
+        <v>0.2501544199587187</v>
       </c>
       <c r="K14">
-        <v>2.93328054433394</v>
+        <v>1.494604747223576</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.931417929538156</v>
+        <v>3.097393893805901</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.594399718744853</v>
+        <v>1.36579240147114</v>
       </c>
       <c r="C15">
-        <v>0.4529764018664366</v>
+        <v>0.2117789930776439</v>
       </c>
       <c r="D15">
-        <v>0.08902306006157801</v>
+        <v>0.05857420806309932</v>
       </c>
       <c r="E15">
-        <v>0.1880655954059378</v>
+        <v>0.1374375589100651</v>
       </c>
       <c r="F15">
-        <v>3.191566282336368</v>
+        <v>3.44029013749585</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3332312145254832</v>
+        <v>0.2494381102727914</v>
       </c>
       <c r="K15">
-        <v>2.899231433365202</v>
+        <v>1.486915988033218</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.9301815011478</v>
+        <v>3.097533631061381</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.422786400896143</v>
+        <v>1.326740211895924</v>
       </c>
       <c r="C16">
-        <v>0.4219959752827833</v>
+        <v>0.2048614910086997</v>
       </c>
       <c r="D16">
-        <v>0.08309448934602415</v>
+        <v>0.05737270314649834</v>
       </c>
       <c r="E16">
-        <v>0.1761848206127326</v>
+        <v>0.1350548713420565</v>
       </c>
       <c r="F16">
-        <v>3.049686031836984</v>
+        <v>3.414348658304988</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3131567945377043</v>
+        <v>0.2453726802944942</v>
       </c>
       <c r="K16">
-        <v>2.705889712763252</v>
+        <v>1.443096110118404</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.924118710459368</v>
+        <v>3.098560992498818</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.318805843382734</v>
+        <v>1.302978251960781</v>
       </c>
       <c r="C17">
-        <v>0.4032417870923837</v>
+        <v>0.2006494685108748</v>
       </c>
       <c r="D17">
-        <v>0.07948410978820419</v>
+        <v>0.05664465043857803</v>
       </c>
       <c r="E17">
-        <v>0.1689940129126271</v>
+        <v>0.1336130198966217</v>
       </c>
       <c r="F17">
-        <v>2.964576525018401</v>
+        <v>3.398831015317938</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3010411627082874</v>
+        <v>0.2429137999590552</v>
       </c>
       <c r="K17">
-        <v>2.58876614726239</v>
+        <v>1.41642891106946</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.921271942061608</v>
+        <v>3.099393091108681</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.259442464554411</v>
+        <v>1.289382642732278</v>
       </c>
       <c r="C18">
-        <v>0.3925403233151314</v>
+        <v>0.1982384110322926</v>
       </c>
       <c r="D18">
-        <v>0.07741656590502544</v>
+        <v>0.05622922031631816</v>
       </c>
       <c r="E18">
-        <v>0.1648915333295875</v>
+        <v>0.1327909920583892</v>
       </c>
       <c r="F18">
-        <v>2.916290872812368</v>
+        <v>3.390051206649844</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2941409911811803</v>
+        <v>0.2415123978554732</v>
       </c>
       <c r="K18">
-        <v>2.521906494798031</v>
+        <v>1.401169439868312</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.919940035155435</v>
+        <v>3.099945736105937</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.239416139718514</v>
+        <v>1.284791695548165</v>
       </c>
       <c r="C19">
-        <v>0.3889310402265664</v>
+        <v>0.1974240544748511</v>
       </c>
       <c r="D19">
-        <v>0.07671801929505762</v>
+        <v>0.05608913486300793</v>
       </c>
       <c r="E19">
-        <v>0.1635080356572658</v>
+        <v>0.132513918362001</v>
       </c>
       <c r="F19">
-        <v>2.900052932896926</v>
+        <v>3.387103487831752</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2918160214068308</v>
+        <v>0.2410401167382048</v>
       </c>
       <c r="K19">
-        <v>2.499352434903926</v>
+        <v>1.396016362474001</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.919540160065807</v>
+        <v>3.100145556679848</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.329828113364044</v>
+        <v>1.305500335665442</v>
       </c>
       <c r="C20">
-        <v>0.4052292079819892</v>
+        <v>0.2010966454099332</v>
       </c>
       <c r="D20">
-        <v>0.07986748819794798</v>
+        <v>0.05672180877702715</v>
       </c>
       <c r="E20">
-        <v>0.1697559686431802</v>
+        <v>0.1337657530927459</v>
       </c>
       <c r="F20">
-        <v>2.973566618625654</v>
+        <v>3.400467828184901</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3023237051931318</v>
+        <v>0.2431742181983765</v>
       </c>
       <c r="K20">
-        <v>2.601180851094085</v>
+        <v>1.419259521004562</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.921543037697006</v>
+        <v>3.099296846573353</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.639137156567131</v>
+        <v>1.375935391781525</v>
       </c>
       <c r="C21">
-        <v>0.4610585226242847</v>
+        <v>0.2135747723572194</v>
       </c>
       <c r="D21">
-        <v>0.09056254425951238</v>
+        <v>0.05888719922650409</v>
       </c>
       <c r="E21">
-        <v>0.1911652221545026</v>
+        <v>0.1380588654390138</v>
       </c>
       <c r="F21">
-        <v>3.228829248206523</v>
+        <v>3.447110520079974</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3384798076639726</v>
+        <v>0.2504986088253958</v>
       </c>
       <c r="K21">
-        <v>2.949641008609092</v>
+        <v>1.49829599061988</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.932029505627767</v>
+        <v>3.09733089888023</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.845984802318355</v>
+        <v>1.422609481292113</v>
       </c>
       <c r="C22">
-        <v>0.498460153155122</v>
+        <v>0.2218340132267826</v>
       </c>
       <c r="D22">
-        <v>0.09764903607107556</v>
+        <v>0.0603318726437152</v>
       </c>
       <c r="E22">
-        <v>0.2055088406041818</v>
+        <v>0.1409297223353079</v>
       </c>
       <c r="F22">
-        <v>3.402527639274894</v>
+        <v>3.47889495654897</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3628265581417338</v>
+        <v>0.2554008451648997</v>
       </c>
       <c r="K22">
-        <v>3.182758296860243</v>
+        <v>1.550656211369471</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.941939678297345</v>
+        <v>3.096708246632645</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.735117886534738</v>
+        <v>1.397639881090811</v>
       </c>
       <c r="C23">
-        <v>0.4784066166693322</v>
+        <v>0.2174163356418433</v>
       </c>
       <c r="D23">
-        <v>0.09385716825924817</v>
+        <v>0.05955813464385074</v>
       </c>
       <c r="E23">
-        <v>0.1978184648706005</v>
+        <v>0.1393915305878863</v>
       </c>
       <c r="F23">
-        <v>3.30914478416787</v>
+        <v>3.461811750428041</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3497610952208703</v>
+        <v>0.2527738468379397</v>
       </c>
       <c r="K23">
-        <v>3.057802163633028</v>
+        <v>1.522645860179125</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.93635327449941</v>
+        <v>3.096979836233757</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.324843655972813</v>
+        <v>1.304359897760889</v>
       </c>
       <c r="C24">
-        <v>0.4043304456693591</v>
+        <v>0.2008944440694052</v>
       </c>
       <c r="D24">
-        <v>0.07969413772465828</v>
+        <v>0.05668691571929685</v>
       </c>
       <c r="E24">
-        <v>0.1694113905614216</v>
+        <v>0.1336966808883346</v>
       </c>
       <c r="F24">
-        <v>2.969500198356428</v>
+        <v>3.399727384403633</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3017436655867698</v>
+        <v>0.2430564449922628</v>
       </c>
       <c r="K24">
-        <v>2.595566689305457</v>
+        <v>1.41797957847146</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.921419529746274</v>
+        <v>3.099340127430338</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.898913999744053</v>
+        <v>1.206479383211672</v>
       </c>
       <c r="C25">
-        <v>0.3276259672062452</v>
+        <v>0.1835153039756676</v>
       </c>
       <c r="D25">
-        <v>0.06475568843902124</v>
+        <v>0.05371710532924112</v>
       </c>
       <c r="E25">
-        <v>0.1400257571230199</v>
+        <v>0.1278323382273321</v>
       </c>
       <c r="F25">
-        <v>2.628224113962546</v>
+        <v>3.338320128606483</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2525165721299629</v>
+        <v>0.2330667112360061</v>
       </c>
       <c r="K25">
-        <v>2.115953545719151</v>
+        <v>1.308090071279821</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.916840030944655</v>
+        <v>3.104715246303115</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.136730802769335</v>
+        <v>1.596101234264466</v>
       </c>
       <c r="C2">
-        <v>0.1710915350730886</v>
+        <v>0.2731913093820424</v>
       </c>
       <c r="D2">
-        <v>0.05164015962813551</v>
+        <v>0.05397128416313279</v>
       </c>
       <c r="E2">
-        <v>0.1237518460948479</v>
+        <v>0.119220254170493</v>
       </c>
       <c r="F2">
-        <v>3.297848894863449</v>
+        <v>2.394210455994411</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.226129125654424</v>
+        <v>0.2179798651266793</v>
       </c>
       <c r="K2">
-        <v>1.229727015956598</v>
+        <v>1.775100900681821</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.111090195120568</v>
+        <v>1.921849194604249</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.090893794756511</v>
+        <v>1.396107494784303</v>
       </c>
       <c r="C3">
-        <v>0.1629003829942803</v>
+        <v>0.2372705606668575</v>
       </c>
       <c r="D3">
-        <v>0.05030122963908212</v>
+        <v>0.04676329803637458</v>
       </c>
       <c r="E3">
-        <v>0.1211336060323056</v>
+        <v>0.1055307986993093</v>
       </c>
       <c r="F3">
-        <v>3.27336112416242</v>
+        <v>2.24452904378137</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2216855784172935</v>
+        <v>0.1954247895649246</v>
       </c>
       <c r="K3">
-        <v>1.178190574632595</v>
+        <v>1.550021193820839</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.116910752226474</v>
+        <v>1.929812606030993</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063452048856703</v>
+        <v>1.275445423030135</v>
       </c>
       <c r="C4">
-        <v>0.1579826333693006</v>
+        <v>0.2156049737933188</v>
       </c>
       <c r="D4">
-        <v>0.04951307680556027</v>
+        <v>0.0423775046530892</v>
       </c>
       <c r="E4">
-        <v>0.1195983299881931</v>
+        <v>0.09729636655090701</v>
       </c>
       <c r="F4">
-        <v>3.259770387011159</v>
+        <v>2.156474967621776</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2190838162325051</v>
+        <v>0.1819324795027057</v>
       </c>
       <c r="K4">
-        <v>1.147316752513689</v>
+        <v>1.414230699656684</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.121222168917527</v>
+        <v>1.936762588702166</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.052445612451834</v>
+        <v>1.226751635330743</v>
       </c>
       <c r="C5">
-        <v>0.1560065759220208</v>
+        <v>0.2068621513681705</v>
       </c>
       <c r="D5">
-        <v>0.04920046178716575</v>
+        <v>0.04059899625956831</v>
       </c>
       <c r="E5">
-        <v>0.1189908644581266</v>
+        <v>0.09397947874219525</v>
       </c>
       <c r="F5">
-        <v>3.25459483534442</v>
+        <v>2.121486554972222</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2180553356912327</v>
+        <v>0.1765153784391913</v>
       </c>
       <c r="K5">
-        <v>1.13492855028926</v>
+        <v>1.359431822920101</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.123164253034929</v>
+        <v>1.940086480103091</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.050628641023849</v>
+        <v>1.218693210636928</v>
       </c>
       <c r="C6">
-        <v>0.1556801389637457</v>
+        <v>0.2054152788677044</v>
       </c>
       <c r="D6">
-        <v>0.04914907027839632</v>
+        <v>0.04030416770526557</v>
       </c>
       <c r="E6">
-        <v>0.1188910923315092</v>
+        <v>0.09343093089555055</v>
       </c>
       <c r="F6">
-        <v>3.253757334788006</v>
+        <v>2.115728710368046</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2178864732843309</v>
+        <v>0.1756205347361686</v>
       </c>
       <c r="K6">
-        <v>1.132883151052397</v>
+        <v>1.350363014626623</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.123497907706479</v>
+        <v>1.940667374068624</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.063302898798753</v>
+        <v>1.274786866215067</v>
       </c>
       <c r="C7">
-        <v>0.1579558704803077</v>
+        <v>0.2154867316479567</v>
       </c>
       <c r="D7">
-        <v>0.04950882606201645</v>
+        <v>0.04235348534275118</v>
       </c>
       <c r="E7">
-        <v>0.1195900639395902</v>
+        <v>0.09725148253254545</v>
       </c>
       <c r="F7">
-        <v>3.259699119536137</v>
+        <v>2.155999574377901</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2190698172906878</v>
+        <v>0.1818591049490337</v>
       </c>
       <c r="K7">
-        <v>1.147148899472512</v>
+        <v>1.413489576654968</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.121247611338802</v>
+        <v>1.936805458351699</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.120780216510354</v>
+        <v>1.526662821644749</v>
       </c>
       <c r="C8">
-        <v>0.1682439829780265</v>
+        <v>0.2607174100095335</v>
       </c>
       <c r="D8">
-        <v>0.05117146351055624</v>
+        <v>0.05147686329399193</v>
       </c>
       <c r="E8">
-        <v>0.1228340523967653</v>
+        <v>0.1144619725509664</v>
       </c>
       <c r="F8">
-        <v>3.289105292169026</v>
+        <v>2.341754724325725</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2245706690114986</v>
+        <v>0.2101235131822534</v>
       </c>
       <c r="K8">
-        <v>1.211797204968917</v>
+        <v>1.696950137896977</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.112943843857465</v>
+        <v>1.924150818394835</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.239088032940288</v>
+        <v>2.040494913621842</v>
       </c>
       <c r="C9">
-        <v>0.1893111294020855</v>
+        <v>0.3531028880765064</v>
       </c>
       <c r="D9">
-        <v>0.0547004706563925</v>
+        <v>0.06974961284430492</v>
       </c>
       <c r="E9">
-        <v>0.1297707430805914</v>
+        <v>0.1497797923886992</v>
       </c>
       <c r="F9">
-        <v>3.358265995471655</v>
+        <v>2.740234093350793</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2363665225199583</v>
+        <v>0.2688023683855931</v>
       </c>
       <c r="K9">
-        <v>1.344708142913817</v>
+        <v>2.275353075355582</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.10252808668659</v>
+        <v>1.916985714272045</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.329461333774304</v>
+        <v>2.434713801934663</v>
       </c>
       <c r="C10">
-        <v>0.205343685082056</v>
+        <v>0.4241480279350469</v>
       </c>
       <c r="D10">
-        <v>0.05745622924138871</v>
+        <v>0.08350773695354974</v>
       </c>
       <c r="E10">
-        <v>0.1352203846030164</v>
+        <v>0.1770100501463645</v>
       </c>
       <c r="F10">
-        <v>3.41613906527553</v>
+        <v>3.059490996400996</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2456550031429572</v>
+        <v>0.3145488884307213</v>
       </c>
       <c r="K10">
-        <v>1.446149712523209</v>
+        <v>2.71932577212749</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.098476087102441</v>
+        <v>1.9244860193823</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.371333998530247</v>
+        <v>2.618832992738703</v>
       </c>
       <c r="C11">
-        <v>0.2127601558477181</v>
+        <v>0.4573901285722002</v>
       </c>
       <c r="D11">
-        <v>0.0587451651277533</v>
+        <v>0.08986415097474776</v>
       </c>
       <c r="E11">
-        <v>0.1377768884715493</v>
+        <v>0.1897583298865086</v>
       </c>
       <c r="F11">
-        <v>3.444012401755089</v>
+        <v>3.21190357222153</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2500172867450203</v>
+        <v>0.3360969499769055</v>
       </c>
       <c r="K11">
-        <v>1.493133486145297</v>
+        <v>2.926762125733319</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.097419738053659</v>
+        <v>1.931177413074437</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.387300156466438</v>
+        <v>2.689350534328867</v>
       </c>
       <c r="C12">
-        <v>0.215586455195421</v>
+        <v>0.4701329050227798</v>
       </c>
       <c r="D12">
-        <v>0.05923831415212533</v>
+        <v>0.09228755329823457</v>
       </c>
       <c r="E12">
-        <v>0.1387561407712994</v>
+        <v>0.1946453990850259</v>
       </c>
       <c r="F12">
-        <v>3.454790530479585</v>
+        <v>3.270784863855425</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2516889667091675</v>
+        <v>0.3443782271004068</v>
       </c>
       <c r="K12">
-        <v>1.511046184117447</v>
+        <v>3.006224769922369</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.097133297988236</v>
+        <v>1.934231134124815</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.38385666485965</v>
+        <v>2.674126096003306</v>
       </c>
       <c r="C13">
-        <v>0.2149769654069189</v>
+        <v>0.4673812614487076</v>
       </c>
       <c r="D13">
-        <v>0.05913188113790113</v>
+        <v>0.09176486290243702</v>
       </c>
       <c r="E13">
-        <v>0.1385447445302077</v>
+        <v>0.1935901006545109</v>
       </c>
       <c r="F13">
-        <v>3.452459333764835</v>
+        <v>3.258049578828462</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2513280594320548</v>
+        <v>0.3425890378465226</v>
       </c>
       <c r="K13">
-        <v>1.507182975654189</v>
+        <v>2.989068417090209</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.097189929922308</v>
+        <v>1.933549511159541</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.37264533928726</v>
+        <v>2.624617910327402</v>
       </c>
       <c r="C14">
-        <v>0.2129923188485918</v>
+        <v>0.4584352486833154</v>
       </c>
       <c r="D14">
-        <v>0.05878563557532601</v>
+        <v>0.09006318362322929</v>
       </c>
       <c r="E14">
-        <v>0.1378572283441031</v>
+        <v>0.1901591511818665</v>
       </c>
       <c r="F14">
-        <v>3.444894649531932</v>
+        <v>3.216723585238952</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2501544199587187</v>
+        <v>0.3367757260782724</v>
       </c>
       <c r="K14">
-        <v>1.494604747223576</v>
+        <v>2.933280544333996</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.097393893805901</v>
+        <v>1.931417929538213</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.36579240147114</v>
+        <v>2.594399718744796</v>
       </c>
       <c r="C15">
-        <v>0.2117789930776439</v>
+        <v>0.4529764018659819</v>
       </c>
       <c r="D15">
-        <v>0.05857420806309932</v>
+        <v>0.08902306006166327</v>
       </c>
       <c r="E15">
-        <v>0.1374375589100651</v>
+        <v>0.1880655954060018</v>
       </c>
       <c r="F15">
-        <v>3.44029013749585</v>
+        <v>3.191566282336368</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2494381102727914</v>
+        <v>0.3332312145255685</v>
       </c>
       <c r="K15">
-        <v>1.486915988033218</v>
+        <v>2.899231433365202</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.097533631061381</v>
+        <v>1.930181501147786</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.326740211895924</v>
+        <v>2.4227864008962</v>
       </c>
       <c r="C16">
-        <v>0.2048614910086997</v>
+        <v>0.4219959752834939</v>
       </c>
       <c r="D16">
-        <v>0.05737270314649834</v>
+        <v>0.08309448934603836</v>
       </c>
       <c r="E16">
-        <v>0.1350548713420565</v>
+        <v>0.1761848206127894</v>
       </c>
       <c r="F16">
-        <v>3.414348658304988</v>
+        <v>3.049686031836984</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2453726802944942</v>
+        <v>0.3131567945377896</v>
       </c>
       <c r="K16">
-        <v>1.443096110118404</v>
+        <v>2.705889712763309</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.098560992498818</v>
+        <v>1.924118710459396</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.302978251960781</v>
+        <v>2.318805843382677</v>
       </c>
       <c r="C17">
-        <v>0.2006494685108748</v>
+        <v>0.4032417870923837</v>
       </c>
       <c r="D17">
-        <v>0.05664465043857803</v>
+        <v>0.07948410978831788</v>
       </c>
       <c r="E17">
-        <v>0.1336130198966217</v>
+        <v>0.168994012912691</v>
       </c>
       <c r="F17">
-        <v>3.398831015317938</v>
+        <v>2.964576525018373</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2429137999590552</v>
+        <v>0.3010411627082021</v>
       </c>
       <c r="K17">
-        <v>1.41642891106946</v>
+        <v>2.588766147262476</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.099393091108681</v>
+        <v>1.921271942061537</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.289382642732278</v>
+        <v>2.259442464554525</v>
       </c>
       <c r="C18">
-        <v>0.1982384110322926</v>
+        <v>0.3925403233151314</v>
       </c>
       <c r="D18">
-        <v>0.05622922031631816</v>
+        <v>0.07741656590501833</v>
       </c>
       <c r="E18">
-        <v>0.1327909920583892</v>
+        <v>0.1648915333296159</v>
       </c>
       <c r="F18">
-        <v>3.390051206649844</v>
+        <v>2.916290872812368</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2415123978554732</v>
+        <v>0.2941409911811235</v>
       </c>
       <c r="K18">
-        <v>1.401169439868312</v>
+        <v>2.521906494798117</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.099945736105937</v>
+        <v>1.919940035155363</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.284791695548165</v>
+        <v>2.239416139718628</v>
       </c>
       <c r="C19">
-        <v>0.1974240544748511</v>
+        <v>0.3889310402263959</v>
       </c>
       <c r="D19">
-        <v>0.05608913486300793</v>
+        <v>0.07671801929494393</v>
       </c>
       <c r="E19">
-        <v>0.132513918362001</v>
+        <v>0.1635080356573013</v>
       </c>
       <c r="F19">
-        <v>3.387103487831752</v>
+        <v>2.900052932896926</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2410401167382048</v>
+        <v>0.2918160214068877</v>
       </c>
       <c r="K19">
-        <v>1.396016362474001</v>
+        <v>2.499352434903898</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.100145556679848</v>
+        <v>1.91954016006575</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.305500335665442</v>
+        <v>2.329828113364044</v>
       </c>
       <c r="C20">
-        <v>0.2010966454099332</v>
+        <v>0.4052292079820177</v>
       </c>
       <c r="D20">
-        <v>0.05672180877702715</v>
+        <v>0.07986748819759271</v>
       </c>
       <c r="E20">
-        <v>0.1337657530927459</v>
+        <v>0.1697559686431802</v>
       </c>
       <c r="F20">
-        <v>3.400467828184901</v>
+        <v>2.973566618625625</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2431742181983765</v>
+        <v>0.3023237051930607</v>
       </c>
       <c r="K20">
-        <v>1.419259521004562</v>
+        <v>2.601180851094057</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.099296846573353</v>
+        <v>1.921543037696978</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.375935391781525</v>
+        <v>2.639137156567188</v>
       </c>
       <c r="C21">
-        <v>0.2135747723572194</v>
+        <v>0.4610585226240289</v>
       </c>
       <c r="D21">
-        <v>0.05888719922650409</v>
+        <v>0.09056254425927079</v>
       </c>
       <c r="E21">
-        <v>0.1380588654390138</v>
+        <v>0.1911652221545026</v>
       </c>
       <c r="F21">
-        <v>3.447110520079974</v>
+        <v>3.228829248206523</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2504986088253958</v>
+        <v>0.3384798076640863</v>
       </c>
       <c r="K21">
-        <v>1.49829599061988</v>
+        <v>2.949641008609035</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.09733089888023</v>
+        <v>1.932029505627753</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.422609481292113</v>
+        <v>2.845984802318299</v>
       </c>
       <c r="C22">
-        <v>0.2218340132267826</v>
+        <v>0.4984601531555484</v>
       </c>
       <c r="D22">
-        <v>0.0603318726437152</v>
+        <v>0.09764903607107556</v>
       </c>
       <c r="E22">
-        <v>0.1409297223353079</v>
+        <v>0.2055088406041463</v>
       </c>
       <c r="F22">
-        <v>3.47889495654897</v>
+        <v>3.402527639274894</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2554008451648997</v>
+        <v>0.3628265581417622</v>
       </c>
       <c r="K22">
-        <v>1.550656211369471</v>
+        <v>3.1827582968603</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.096708246632645</v>
+        <v>1.941939678297345</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.397639881090811</v>
+        <v>2.735117886534795</v>
       </c>
       <c r="C23">
-        <v>0.2174163356418433</v>
+        <v>0.4784066166690764</v>
       </c>
       <c r="D23">
-        <v>0.05955813464385074</v>
+        <v>0.09385716825921975</v>
       </c>
       <c r="E23">
-        <v>0.1393915305878863</v>
+        <v>0.197818464870565</v>
       </c>
       <c r="F23">
-        <v>3.461811750428041</v>
+        <v>3.30914478416787</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2527738468379397</v>
+        <v>0.3497610952208277</v>
       </c>
       <c r="K23">
-        <v>1.522645860179125</v>
+        <v>3.057802163633085</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.096979836233757</v>
+        <v>1.936353274499382</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.304359897760889</v>
+        <v>2.324843655972757</v>
       </c>
       <c r="C24">
-        <v>0.2008944440694052</v>
+        <v>0.4043304456689327</v>
       </c>
       <c r="D24">
-        <v>0.05668691571929685</v>
+        <v>0.07969413772465828</v>
       </c>
       <c r="E24">
-        <v>0.1336966808883346</v>
+        <v>0.1694113905614145</v>
       </c>
       <c r="F24">
-        <v>3.399727384403633</v>
+        <v>2.969500198356428</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2430564449922628</v>
+        <v>0.3017436655866561</v>
       </c>
       <c r="K24">
-        <v>1.41797957847146</v>
+        <v>2.595566689305429</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.099340127430338</v>
+        <v>1.921419529746274</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.206479383211672</v>
+        <v>1.898913999744082</v>
       </c>
       <c r="C25">
-        <v>0.1835153039756676</v>
+        <v>0.3276259672065009</v>
       </c>
       <c r="D25">
-        <v>0.05371710532924112</v>
+        <v>0.06475568843900703</v>
       </c>
       <c r="E25">
-        <v>0.1278323382273321</v>
+        <v>0.1400257571230199</v>
       </c>
       <c r="F25">
-        <v>3.338320128606483</v>
+        <v>2.628224113962517</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2330667112360061</v>
+        <v>0.2525165721298919</v>
       </c>
       <c r="K25">
-        <v>1.308090071279821</v>
+        <v>2.115953545719123</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.104715246303115</v>
+        <v>1.916840030944613</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.596101234264466</v>
+        <v>3.376290164832483</v>
       </c>
       <c r="C2">
-        <v>0.2731913093820424</v>
+        <v>0.5490630208994673</v>
       </c>
       <c r="D2">
-        <v>0.05397128416313279</v>
+        <v>0.07339652657523033</v>
       </c>
       <c r="E2">
-        <v>0.119220254170493</v>
+        <v>0.04787863532872727</v>
       </c>
       <c r="F2">
-        <v>2.394210455994411</v>
+        <v>0.7036781754369414</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.002914888944124061</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003433758701758105</v>
       </c>
       <c r="J2">
-        <v>0.2179798651266793</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.775100900681821</v>
+        <v>0.3396188281139167</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06077348787127768</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.921849194604249</v>
+        <v>0.3574615746315004</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.74672889472447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.396107494784303</v>
+        <v>2.94342391367428</v>
       </c>
       <c r="C3">
-        <v>0.2372705606668575</v>
+        <v>0.4872662021280973</v>
       </c>
       <c r="D3">
-        <v>0.04676329803637458</v>
+        <v>0.06739364056532793</v>
       </c>
       <c r="E3">
-        <v>0.1055307986993093</v>
+        <v>0.0460782220717002</v>
       </c>
       <c r="F3">
-        <v>2.24452904378137</v>
+        <v>0.683234685505802</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.004652161883269168</v>
+      </c>
+      <c r="I3">
+        <v>0.005150385634013155</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.1954247895649246</v>
-      </c>
       <c r="K3">
-        <v>1.550021193820839</v>
+        <v>0.3489288522167904</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05908669787751819</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.929812606030993</v>
+        <v>0.316080279833244</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.710472255289417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.275445423030135</v>
+        <v>2.677250276647726</v>
       </c>
       <c r="C4">
-        <v>0.2156049737933188</v>
+        <v>0.4495117731336506</v>
       </c>
       <c r="D4">
-        <v>0.0423775046530892</v>
+        <v>0.06373043750009089</v>
       </c>
       <c r="E4">
-        <v>0.09729636655090701</v>
+        <v>0.04495792500613494</v>
       </c>
       <c r="F4">
-        <v>2.156474967621776</v>
+        <v>0.6713576731367752</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.005966634446031516</v>
+      </c>
+      <c r="I4">
+        <v>0.006473448441866925</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.1819324795027057</v>
-      </c>
       <c r="K4">
-        <v>1.414230699656684</v>
+        <v>0.3550649456360553</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05801644653088067</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.936762588702166</v>
+        <v>0.2907658748734718</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.690256489135763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.226751635330743</v>
+        <v>2.568660673695263</v>
       </c>
       <c r="C5">
-        <v>0.2068621513681705</v>
+        <v>0.4348902087797057</v>
       </c>
       <c r="D5">
-        <v>0.04059899625956831</v>
+        <v>0.06227568959022278</v>
       </c>
       <c r="E5">
-        <v>0.09397947874219525</v>
+        <v>0.04447901403417021</v>
       </c>
       <c r="F5">
-        <v>2.121486554972222</v>
+        <v>0.6660190271230491</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.00656485046408728</v>
+      </c>
+      <c r="I5">
+        <v>0.007157166534450088</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.1765153784391913</v>
-      </c>
       <c r="K5">
-        <v>1.359431822920101</v>
+        <v>0.3572920326993252</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05755261810695256</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.940086480103091</v>
+        <v>0.2807108297116088</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.680568215386998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.218693210636928</v>
+        <v>2.55061257051409</v>
       </c>
       <c r="C6">
-        <v>0.2054152788677044</v>
+        <v>0.4333497746067394</v>
       </c>
       <c r="D6">
-        <v>0.04030416770526557</v>
+        <v>0.06207467240431441</v>
       </c>
       <c r="E6">
-        <v>0.09343093089555055</v>
+        <v>0.04437675432275423</v>
       </c>
       <c r="F6">
-        <v>2.115728710368046</v>
+        <v>0.6643343860918804</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.006671394959370053</v>
+      </c>
+      <c r="I6">
+        <v>0.00737959202665639</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.1756205347361686</v>
-      </c>
       <c r="K6">
-        <v>1.350363014626623</v>
+        <v>0.3572101014251938</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05745234351489359</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.940667374068624</v>
+        <v>0.2793367562140219</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.676616993805851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.274786866215067</v>
+        <v>2.675757440635095</v>
       </c>
       <c r="C7">
-        <v>0.2154867316479567</v>
+        <v>0.4517385975987338</v>
       </c>
       <c r="D7">
-        <v>0.04235348534275118</v>
+        <v>0.06382082924298516</v>
       </c>
       <c r="E7">
-        <v>0.09725148253254545</v>
+        <v>0.04489026253833028</v>
       </c>
       <c r="F7">
-        <v>2.155999574377901</v>
+        <v>0.6690806843384465</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.005983734137649854</v>
+      </c>
+      <c r="I7">
+        <v>0.006752641038854534</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.1818591049490337</v>
-      </c>
       <c r="K7">
-        <v>1.413489576654968</v>
+        <v>0.3538478661446938</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0579487633970619</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.936805458351699</v>
+        <v>0.2914357070648066</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.683652560009989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.526662821644749</v>
+        <v>3.227059531067425</v>
       </c>
       <c r="C8">
-        <v>0.2607174100095335</v>
+        <v>0.5309559385517559</v>
       </c>
       <c r="D8">
-        <v>0.05147686329399193</v>
+        <v>0.07146802696464505</v>
       </c>
       <c r="E8">
-        <v>0.1144619725509664</v>
+        <v>0.04718066442574465</v>
       </c>
       <c r="F8">
-        <v>2.341754724325725</v>
+        <v>0.6935781024310685</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.003469469918209067</v>
+      </c>
+      <c r="I8">
+        <v>0.004289805434598115</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.2101235131822534</v>
-      </c>
       <c r="K8">
-        <v>1.696950137896977</v>
+        <v>0.3411108820101703</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06012027463945591</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.924150818394835</v>
+        <v>0.3442450893917766</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.725261271320761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.040494913621842</v>
+        <v>4.305931369586574</v>
       </c>
       <c r="C9">
-        <v>0.3531028880765064</v>
+        <v>0.6836729947064555</v>
       </c>
       <c r="D9">
-        <v>0.06974961284430492</v>
+        <v>0.08646947445684816</v>
       </c>
       <c r="E9">
-        <v>0.1497797923886992</v>
+        <v>0.05167422353846796</v>
       </c>
       <c r="F9">
-        <v>2.740234093350793</v>
+        <v>0.7512700570611202</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.0006253739456076879</v>
+      </c>
+      <c r="I9">
+        <v>0.001335864160184386</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.2688023683855931</v>
-      </c>
       <c r="K9">
-        <v>2.275353075355582</v>
+        <v>0.3218290568323994</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06422451156559428</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.916985714272045</v>
+        <v>0.4472473480936827</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.835753629235256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.434713801934663</v>
+        <v>5.098075620295504</v>
       </c>
       <c r="C10">
-        <v>0.4241480279350469</v>
+        <v>0.8034178670542076</v>
       </c>
       <c r="D10">
-        <v>0.08350773695354974</v>
+        <v>0.09634942518430734</v>
       </c>
       <c r="E10">
-        <v>0.1770100501463645</v>
+        <v>0.05359960877760628</v>
       </c>
       <c r="F10">
-        <v>3.059490996400996</v>
+        <v>0.7843953016066223</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0001943294119155503</v>
+      </c>
+      <c r="I10">
+        <v>0.0008997571654276726</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.3145488884307213</v>
-      </c>
       <c r="K10">
-        <v>2.71932577212749</v>
+        <v>0.3047648167882038</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06667478960449841</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.9244860193823</v>
+        <v>0.5122947604754984</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.896103210784986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.618832992738703</v>
+        <v>5.455431402389536</v>
       </c>
       <c r="C11">
-        <v>0.4573901285722002</v>
+        <v>0.9064109111766356</v>
       </c>
       <c r="D11">
-        <v>0.08986415097474776</v>
+        <v>0.08948831491889564</v>
       </c>
       <c r="E11">
-        <v>0.1897583298865086</v>
+        <v>0.04552144214104992</v>
       </c>
       <c r="F11">
-        <v>3.21190357222153</v>
+        <v>0.6943931549150193</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01875208085422386</v>
+      </c>
+      <c r="I11">
+        <v>0.001445235899476316</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.3360969499769055</v>
-      </c>
       <c r="K11">
-        <v>2.926762125733319</v>
+        <v>0.2585750405538931</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07017954159108442</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.931177413074437</v>
+        <v>0.4443425224698672</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.66556531582529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.689350534328867</v>
+        <v>5.589587305543319</v>
       </c>
       <c r="C12">
-        <v>0.4701329050227798</v>
+        <v>0.9665242720467973</v>
       </c>
       <c r="D12">
-        <v>0.09228755329823457</v>
+        <v>0.08170547547541673</v>
       </c>
       <c r="E12">
-        <v>0.1946453990850259</v>
+        <v>0.04161165226708952</v>
       </c>
       <c r="F12">
-        <v>3.270784863855425</v>
+        <v>0.6184254473848156</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05742189489604499</v>
+      </c>
+      <c r="I12">
+        <v>0.001459346270515915</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.3443782271004068</v>
-      </c>
       <c r="K12">
-        <v>3.006224769922369</v>
+        <v>0.2289421003002126</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08059636006121096</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.934231134124815</v>
+        <v>0.3767402310202925</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.477355863034575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.674126096003306</v>
+        <v>5.558311549342875</v>
       </c>
       <c r="C13">
-        <v>0.4673812614487076</v>
+        <v>1.000345201942224</v>
       </c>
       <c r="D13">
-        <v>0.09176486290243702</v>
+        <v>0.07297960341018239</v>
       </c>
       <c r="E13">
-        <v>0.1935901006545109</v>
+        <v>0.04053438986036539</v>
       </c>
       <c r="F13">
-        <v>3.258049578828462</v>
+        <v>0.5453366887055822</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1131722349916799</v>
+      </c>
+      <c r="I13">
+        <v>0.001391556642844627</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.3425890378465226</v>
-      </c>
       <c r="K13">
-        <v>2.989068417090209</v>
+        <v>0.2081278482131381</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09656414334592611</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.933549511159541</v>
+        <v>0.3072228478355754</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.300170192087464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.624617910327402</v>
+        <v>5.461437512548571</v>
       </c>
       <c r="C14">
-        <v>0.4584352486833154</v>
+        <v>1.012965275320909</v>
       </c>
       <c r="D14">
-        <v>0.09006318362322929</v>
+        <v>0.06656938152247704</v>
       </c>
       <c r="E14">
-        <v>0.1901591511818665</v>
+        <v>0.04146582099300478</v>
       </c>
       <c r="F14">
-        <v>3.216723585238952</v>
+        <v>0.4958926724436523</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1625365356426016</v>
+      </c>
+      <c r="I14">
+        <v>0.001411844088931247</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.3367757260782724</v>
-      </c>
       <c r="K14">
-        <v>2.933280544333996</v>
+        <v>0.1979077383007244</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1111525315541968</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.931417929538213</v>
+        <v>0.259016464524592</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.181908378535496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.594399718744796</v>
+        <v>5.4025487139441</v>
       </c>
       <c r="C15">
-        <v>0.4529764018659819</v>
+        <v>1.011168484823628</v>
       </c>
       <c r="D15">
-        <v>0.08902306006166327</v>
+        <v>0.06482050645050208</v>
       </c>
       <c r="E15">
-        <v>0.1880655954060018</v>
+        <v>0.04187080536294285</v>
       </c>
       <c r="F15">
-        <v>3.191566282336368</v>
+        <v>0.4834580878971053</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1750610683862988</v>
+      </c>
+      <c r="I15">
+        <v>0.001529995640961346</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.3332312145255685</v>
-      </c>
       <c r="K15">
-        <v>2.899231433365202</v>
+        <v>0.1965689649270983</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1148793330504532</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.930181501147786</v>
+        <v>0.246589123314692</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.15263159826408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.4227864008962</v>
+        <v>5.066794161980113</v>
       </c>
       <c r="C16">
-        <v>0.4219959752834939</v>
+        <v>0.952657031700312</v>
       </c>
       <c r="D16">
-        <v>0.08309448934603836</v>
+        <v>0.06261787717134126</v>
       </c>
       <c r="E16">
-        <v>0.1761848206127894</v>
+        <v>0.04121356465717696</v>
       </c>
       <c r="F16">
-        <v>3.049686031836984</v>
+        <v>0.4832427599219358</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1624685517640216</v>
+      </c>
+      <c r="I16">
+        <v>0.00174400615199044</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.3131567945377896</v>
-      </c>
       <c r="K16">
-        <v>2.705889712763309</v>
+        <v>0.2068665456323613</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1099956877891444</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.924118710459396</v>
+        <v>0.2351754651605233</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.159013629517332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.318805843382677</v>
+        <v>4.861411973363147</v>
       </c>
       <c r="C17">
-        <v>0.4032417870923837</v>
+        <v>0.9013495608080575</v>
       </c>
       <c r="D17">
-        <v>0.07948410978831788</v>
+        <v>0.06427716877315248</v>
       </c>
       <c r="E17">
-        <v>0.168994012912691</v>
+        <v>0.03993488724748895</v>
       </c>
       <c r="F17">
-        <v>2.964576525018373</v>
+        <v>0.5089021947631096</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.124826770341528</v>
+      </c>
+      <c r="I17">
+        <v>0.001956575305302799</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.3010411627082021</v>
-      </c>
       <c r="K17">
-        <v>2.588766147262476</v>
+        <v>0.2199445739528976</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09792269294493039</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.921271942061537</v>
+        <v>0.2512761216325856</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.225793879553407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.259442464554525</v>
+        <v>4.744162183606932</v>
       </c>
       <c r="C18">
-        <v>0.3925403233151314</v>
+        <v>0.848895454608197</v>
       </c>
       <c r="D18">
-        <v>0.07741656590501833</v>
+        <v>0.06954677912145968</v>
       </c>
       <c r="E18">
-        <v>0.1648915333296159</v>
+        <v>0.03954803422345032</v>
       </c>
       <c r="F18">
-        <v>2.916290872812368</v>
+        <v>0.5631869775758389</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07205753556679184</v>
+      </c>
+      <c r="I18">
+        <v>0.001802281019292806</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.2941409911811235</v>
-      </c>
       <c r="K18">
-        <v>2.521906494798117</v>
+        <v>0.2394176820083054</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08189457135390654</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.919940035155363</v>
+        <v>0.2950596564195251</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.361302384054568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.239416139718628</v>
+        <v>4.705774493017827</v>
       </c>
       <c r="C19">
-        <v>0.3889310402263959</v>
+        <v>0.8058279950556937</v>
       </c>
       <c r="D19">
-        <v>0.07671801929494393</v>
+        <v>0.07783104911771233</v>
       </c>
       <c r="E19">
-        <v>0.1635080356573013</v>
+        <v>0.04220558040614097</v>
       </c>
       <c r="F19">
-        <v>2.900052932896926</v>
+        <v>0.6368978589649572</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02672492775359814</v>
+      </c>
+      <c r="I19">
+        <v>0.001882307616436485</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.2918160214068877</v>
-      </c>
       <c r="K19">
-        <v>2.499352434903898</v>
+        <v>0.2643424488058841</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06949986533610364</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.91954016006575</v>
+        <v>0.3635773036648118</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.541829737061562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.329828113364044</v>
+        <v>4.889852625355672</v>
       </c>
       <c r="C20">
-        <v>0.4052292079820177</v>
+        <v>0.7799313625313857</v>
       </c>
       <c r="D20">
-        <v>0.07986748819759271</v>
+        <v>0.09403537557785313</v>
       </c>
       <c r="E20">
-        <v>0.1697559686431802</v>
+        <v>0.05285961813748763</v>
       </c>
       <c r="F20">
-        <v>2.973566618625625</v>
+        <v>0.7681540885634561</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0001923586798726618</v>
+      </c>
+      <c r="I20">
+        <v>0.001694099632451262</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.3023237051930607</v>
-      </c>
       <c r="K20">
-        <v>2.601180851094057</v>
+        <v>0.3052087270122783</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0658605204676368</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.921543037696978</v>
+        <v>0.4972302499535317</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.858371581211287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.639137156567188</v>
+        <v>5.498548770549633</v>
       </c>
       <c r="C21">
-        <v>0.4610585226240289</v>
+        <v>0.8633026631600558</v>
       </c>
       <c r="D21">
-        <v>0.09056254425927079</v>
+        <v>0.1037027682836538</v>
       </c>
       <c r="E21">
-        <v>0.1911652221545026</v>
+        <v>0.05637663772340495</v>
       </c>
       <c r="F21">
-        <v>3.228829248206523</v>
+        <v>0.8153490552051892</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>9.869658951267013E-05</v>
+      </c>
+      <c r="I21">
+        <v>0.001743620469842888</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.3384798076640863</v>
-      </c>
       <c r="K21">
-        <v>2.949641008609035</v>
+        <v>0.3010079840843467</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06835877481533947</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.932029505627753</v>
+        <v>0.565179339386674</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.959660523734698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.845984802318299</v>
+        <v>5.896703447495327</v>
       </c>
       <c r="C22">
-        <v>0.4984601531555484</v>
+        <v>0.917371526451177</v>
       </c>
       <c r="D22">
-        <v>0.09764903607107556</v>
+        <v>0.1092254396961891</v>
       </c>
       <c r="E22">
-        <v>0.2055088406041463</v>
+        <v>0.05808801697458499</v>
       </c>
       <c r="F22">
-        <v>3.402527639274894</v>
+        <v>0.8437137881953873</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.0004541840826564059</v>
+      </c>
+      <c r="I22">
+        <v>0.001829126706026862</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.3628265581417622</v>
-      </c>
       <c r="K22">
-        <v>3.1827582968603</v>
+        <v>0.2979253272493914</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06984302281282573</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.941939678297345</v>
+        <v>0.6027130811732349</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.021663368118965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.735117886534795</v>
+        <v>5.684231830075873</v>
       </c>
       <c r="C23">
-        <v>0.4784066166690764</v>
+        <v>0.8854843324325827</v>
       </c>
       <c r="D23">
-        <v>0.09385716825921975</v>
+        <v>0.1061413377631268</v>
       </c>
       <c r="E23">
-        <v>0.197818464870565</v>
+        <v>0.05724417233601997</v>
       </c>
       <c r="F23">
-        <v>3.30914478416787</v>
+        <v>0.8310430443293484</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.0002344397611686588</v>
+      </c>
+      <c r="I23">
+        <v>0.001450086863957978</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.3497610952208277</v>
-      </c>
       <c r="K23">
-        <v>3.057802163633085</v>
+        <v>0.3009066742070345</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06911527173205423</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.936353274499382</v>
+        <v>0.5816818945341424</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.995778259755639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.324843655972757</v>
+        <v>4.880291795633582</v>
       </c>
       <c r="C24">
-        <v>0.4043304456689327</v>
+        <v>0.7701722123126444</v>
       </c>
       <c r="D24">
-        <v>0.07969413772465828</v>
+        <v>0.09474979602908462</v>
       </c>
       <c r="E24">
-        <v>0.1694113905614145</v>
+        <v>0.0539364653145995</v>
       </c>
       <c r="F24">
-        <v>2.969500198356428</v>
+        <v>0.7809643718721375</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>6.303141755537034E-05</v>
+      </c>
+      <c r="I24">
+        <v>0.0011976937489937</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.3017436655866561</v>
-      </c>
       <c r="K24">
-        <v>2.595566689305429</v>
+        <v>0.3111115444042731</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06622789709070021</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.921419529746274</v>
+        <v>0.5039829255681809</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.891882823505597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.898913999744082</v>
+        <v>4.014097662877816</v>
       </c>
       <c r="C25">
-        <v>0.3276259672065009</v>
+        <v>0.6466287833274009</v>
       </c>
       <c r="D25">
-        <v>0.06475568843900703</v>
+        <v>0.0825871246648191</v>
       </c>
       <c r="E25">
-        <v>0.1400257571230199</v>
+        <v>0.05036016283297506</v>
       </c>
       <c r="F25">
-        <v>2.628224113962517</v>
+        <v>0.7310480242396196</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.001157410067333386</v>
+      </c>
+      <c r="I25">
+        <v>0.00231538626097727</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.2525165721298919</v>
-      </c>
       <c r="K25">
-        <v>2.115953545719123</v>
+        <v>0.3244650240566997</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06303753116991107</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.916840030944613</v>
+        <v>0.4207441395575842</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.792265866190206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.376290164832483</v>
+        <v>3.382782166709774</v>
       </c>
       <c r="C2">
-        <v>0.5490630208994673</v>
+        <v>0.5729953264865628</v>
       </c>
       <c r="D2">
-        <v>0.07339652657523033</v>
+        <v>0.07634621620730542</v>
       </c>
       <c r="E2">
-        <v>0.04787863532872727</v>
+        <v>0.04730700129926024</v>
       </c>
       <c r="F2">
-        <v>0.7036781754369414</v>
+        <v>0.6583428985464082</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.002914888944124061</v>
+        <v>0.002134923807178057</v>
       </c>
       <c r="I2">
-        <v>0.003433758701758105</v>
+        <v>0.002331533402464281</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3396188281139167</v>
+        <v>0.3045714421841126</v>
       </c>
       <c r="L2">
-        <v>0.06077348787127768</v>
+        <v>0.1490744482852069</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08483556242998347</v>
       </c>
       <c r="N2">
-        <v>0.3574615746315004</v>
+        <v>0.05916016626323661</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3742964510033602</v>
       </c>
       <c r="Q2">
-        <v>1.74672889472447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.609508296606066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.94342391367428</v>
+        <v>2.94922246405082</v>
       </c>
       <c r="C3">
-        <v>0.4872662021280973</v>
+        <v>0.502256551433419</v>
       </c>
       <c r="D3">
-        <v>0.06739364056532793</v>
+        <v>0.07009047530292634</v>
       </c>
       <c r="E3">
-        <v>0.0460782220717002</v>
+        <v>0.04570034874492102</v>
       </c>
       <c r="F3">
-        <v>0.683234685505802</v>
+        <v>0.6425277382717951</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.004652161883269168</v>
+        <v>0.003552113765607268</v>
       </c>
       <c r="I3">
-        <v>0.005150385634013155</v>
+        <v>0.003547809930784407</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3489288522167904</v>
+        <v>0.3151648053579734</v>
       </c>
       <c r="L3">
-        <v>0.05908669787751819</v>
+        <v>0.155322001247205</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08781970903153091</v>
       </c>
       <c r="N3">
-        <v>0.316080279833244</v>
+        <v>0.05755739708342289</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3306412976905193</v>
       </c>
       <c r="Q3">
-        <v>1.710472255289417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.585969928118089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.677250276647726</v>
+        <v>2.682496489316918</v>
       </c>
       <c r="C4">
-        <v>0.4495117731336506</v>
+        <v>0.4591712561018255</v>
       </c>
       <c r="D4">
-        <v>0.06373043750009089</v>
+        <v>0.06627869903432781</v>
       </c>
       <c r="E4">
-        <v>0.04495792500613494</v>
+        <v>0.04469782535011912</v>
       </c>
       <c r="F4">
-        <v>0.6713576731367752</v>
+        <v>0.6333521373349384</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.005966634446031516</v>
+        <v>0.004639886352008793</v>
       </c>
       <c r="I4">
-        <v>0.006473448441866925</v>
+        <v>0.004522321216425595</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.3550649456360553</v>
+        <v>0.3220095472492996</v>
       </c>
       <c r="L4">
-        <v>0.05801644653088067</v>
+        <v>0.1593275389842255</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09025409344676483</v>
       </c>
       <c r="N4">
-        <v>0.2907658748734718</v>
+        <v>0.05654183503529298</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3039742138097523</v>
       </c>
       <c r="Q4">
-        <v>1.690256489135763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.573132676519037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568660673695263</v>
+        <v>2.573650549693923</v>
       </c>
       <c r="C5">
-        <v>0.4348902087797057</v>
+        <v>0.4424167155216594</v>
       </c>
       <c r="D5">
-        <v>0.06227568959022278</v>
+        <v>0.06476425958988585</v>
       </c>
       <c r="E5">
-        <v>0.04447901403417021</v>
+        <v>0.0442676041813499</v>
       </c>
       <c r="F5">
-        <v>0.6660190271230491</v>
+        <v>0.6291218204148876</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.00656485046408728</v>
+        <v>0.005138074091696365</v>
       </c>
       <c r="I5">
-        <v>0.007157166534450088</v>
+        <v>0.00506571177308679</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3572920326993252</v>
+        <v>0.3245460485649403</v>
       </c>
       <c r="L5">
-        <v>0.05755261810695256</v>
+        <v>0.1608245145967615</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09132075657083671</v>
       </c>
       <c r="N5">
-        <v>0.2807108297116088</v>
+        <v>0.05610398224690416</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2933735353059745</v>
       </c>
       <c r="Q5">
-        <v>1.680568215386998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.566480711455185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.55061257051409</v>
+        <v>2.555555220505482</v>
       </c>
       <c r="C6">
-        <v>0.4333497746067394</v>
+        <v>0.4405241139032796</v>
       </c>
       <c r="D6">
-        <v>0.06207467240431441</v>
+        <v>0.06455237833763761</v>
       </c>
       <c r="E6">
-        <v>0.04437675432275423</v>
+        <v>0.04417460046229049</v>
       </c>
       <c r="F6">
-        <v>0.6643343860918804</v>
+        <v>0.6276706425556426</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006671394959370053</v>
+        <v>0.00522710898897516</v>
       </c>
       <c r="I6">
-        <v>0.00737959202665639</v>
+        <v>0.005279981105713816</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3572101014251938</v>
+        <v>0.3245636101617251</v>
       </c>
       <c r="L6">
-        <v>0.05745234351489359</v>
+        <v>0.1608596597836502</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09141530803897968</v>
       </c>
       <c r="N6">
-        <v>0.2793367562140219</v>
+        <v>0.05601163641916163</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2919027823273552</v>
       </c>
       <c r="Q6">
-        <v>1.676616993805851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.563193259795668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.675757440635095</v>
+        <v>2.680992579951237</v>
       </c>
       <c r="C7">
-        <v>0.4517385975987338</v>
+        <v>0.4613728219539439</v>
       </c>
       <c r="D7">
-        <v>0.06382082924298516</v>
+        <v>0.06636546453746917</v>
       </c>
       <c r="E7">
-        <v>0.04489026253833028</v>
+        <v>0.04463416653776253</v>
       </c>
       <c r="F7">
-        <v>0.6690806843384465</v>
+        <v>0.6312348789378674</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.005983734137649854</v>
+        <v>0.004654442642202661</v>
       </c>
       <c r="I7">
-        <v>0.006752641038854534</v>
+        <v>0.004840230663957001</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3538478661446938</v>
+        <v>0.3209368658539127</v>
       </c>
       <c r="L7">
-        <v>0.0579487633970619</v>
+        <v>0.1587793481436357</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09000302494776413</v>
       </c>
       <c r="N7">
-        <v>0.2914357070648066</v>
+        <v>0.05648479297727749</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3046187577502764</v>
       </c>
       <c r="Q7">
-        <v>1.683652560009989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.56703751540455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.227059531067425</v>
+        <v>3.233332521434761</v>
       </c>
       <c r="C8">
-        <v>0.5309559385517559</v>
+        <v>0.5517952560628601</v>
       </c>
       <c r="D8">
-        <v>0.07146802696464505</v>
+        <v>0.0743257331912659</v>
       </c>
       <c r="E8">
-        <v>0.04718066442574465</v>
+        <v>0.04668096787798603</v>
       </c>
       <c r="F8">
-        <v>0.6935781024310685</v>
+        <v>0.6500760623241177</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.003469469918209067</v>
+        <v>0.002584264395913083</v>
       </c>
       <c r="I8">
-        <v>0.004289805434598115</v>
+        <v>0.003075097246703073</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3411108820101703</v>
+        <v>0.3067305249701366</v>
       </c>
       <c r="L8">
-        <v>0.06012027463945591</v>
+        <v>0.1505323409972998</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08532888310588049</v>
       </c>
       <c r="N8">
-        <v>0.3442450893917766</v>
+        <v>0.05855113042617355</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3602655629576219</v>
       </c>
       <c r="Q8">
-        <v>1.725261271320761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.593193145389066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.305931369586574</v>
+        <v>4.313101753369381</v>
       </c>
       <c r="C9">
-        <v>0.6836729947064555</v>
+        <v>0.7277295654097884</v>
       </c>
       <c r="D9">
-        <v>0.08646947445684816</v>
+        <v>0.08999683718379714</v>
       </c>
       <c r="E9">
-        <v>0.05167422353846796</v>
+        <v>0.05067916907407444</v>
       </c>
       <c r="F9">
-        <v>0.7512700570611202</v>
+        <v>0.6952357272174723</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0006253739456076879</v>
+        <v>0.0003578674491893086</v>
       </c>
       <c r="I9">
-        <v>0.001335864160184386</v>
+        <v>0.001071486162877555</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3218290568323994</v>
+        <v>0.2836279085331768</v>
       </c>
       <c r="L9">
-        <v>0.06422451156559428</v>
+        <v>0.1365795728878663</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08161746543407311</v>
       </c>
       <c r="N9">
-        <v>0.4472473480936827</v>
+        <v>0.06245123690851306</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4691965072984488</v>
       </c>
       <c r="Q9">
-        <v>1.835753629235256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.668906798055644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.098075620295504</v>
+        <v>5.10501383998303</v>
       </c>
       <c r="C10">
-        <v>0.8034178670542076</v>
+        <v>0.8642922875424404</v>
       </c>
       <c r="D10">
-        <v>0.09634942518430734</v>
+        <v>0.1003075422594222</v>
       </c>
       <c r="E10">
-        <v>0.05359960877760628</v>
+        <v>0.0523200138472486</v>
       </c>
       <c r="F10">
-        <v>0.7843953016066223</v>
+        <v>0.7201349974185405</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0001943294119155503</v>
+        <v>0.0001919646018251342</v>
       </c>
       <c r="I10">
-        <v>0.0008997571654276726</v>
+        <v>0.001102116273763443</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3047648167882038</v>
+        <v>0.2645734107130728</v>
       </c>
       <c r="L10">
-        <v>0.06667478960449841</v>
+        <v>0.1257729633137998</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08036642896998103</v>
       </c>
       <c r="N10">
-        <v>0.5122947604754984</v>
+        <v>0.06501271950770482</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5380707406250167</v>
       </c>
       <c r="Q10">
-        <v>1.896103210784986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.7065196657488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.455431402389536</v>
+        <v>5.462206666489294</v>
       </c>
       <c r="C11">
-        <v>0.9064109111766356</v>
+        <v>0.9652115006983308</v>
       </c>
       <c r="D11">
-        <v>0.08948831491889564</v>
+        <v>0.0928932573155663</v>
       </c>
       <c r="E11">
-        <v>0.04552144214104992</v>
+        <v>0.04480244421527591</v>
       </c>
       <c r="F11">
-        <v>0.6943931549150193</v>
+        <v>0.6403575262956878</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01875208085422386</v>
+        <v>0.01876464549276236</v>
       </c>
       <c r="I11">
-        <v>0.001445235899476316</v>
+        <v>0.00184492466802233</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.2585750405538931</v>
+        <v>0.2270032183748221</v>
       </c>
       <c r="L11">
-        <v>0.07017954159108442</v>
+        <v>0.1114460807946784</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06784155452163709</v>
       </c>
       <c r="N11">
-        <v>0.4443425224698672</v>
+        <v>0.07041897299047584</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4658816719881713</v>
       </c>
       <c r="Q11">
-        <v>1.66556531582529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.506681829257815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.589587305543319</v>
+        <v>5.596346420143504</v>
       </c>
       <c r="C12">
-        <v>0.9665242720467973</v>
+        <v>1.019040806967467</v>
       </c>
       <c r="D12">
-        <v>0.08170547547541673</v>
+        <v>0.08458668283762449</v>
       </c>
       <c r="E12">
-        <v>0.04161165226708952</v>
+        <v>0.04132086897988696</v>
       </c>
       <c r="F12">
-        <v>0.6184254473848156</v>
+        <v>0.5737926951681871</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05742189489604499</v>
+        <v>0.05742604117288863</v>
       </c>
       <c r="I12">
-        <v>0.001459346270515915</v>
+        <v>0.00187607335262463</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2289421003002126</v>
+        <v>0.203904737613243</v>
       </c>
       <c r="L12">
-        <v>0.08059636006121096</v>
+        <v>0.1036379027707088</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05882140002277225</v>
       </c>
       <c r="N12">
-        <v>0.3767402310202925</v>
+        <v>0.08200371302306309</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3942590783385498</v>
       </c>
       <c r="Q12">
-        <v>1.477355863034575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.346208693621463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.558311549342875</v>
+        <v>5.565199452932632</v>
       </c>
       <c r="C13">
-        <v>1.000345201942224</v>
+        <v>1.043018814356429</v>
       </c>
       <c r="D13">
-        <v>0.07297960341018239</v>
+        <v>0.07533561794318899</v>
       </c>
       <c r="E13">
-        <v>0.04053438986036539</v>
+        <v>0.04057808123321571</v>
       </c>
       <c r="F13">
-        <v>0.5453366887055822</v>
+        <v>0.5101412266876295</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1131722349916799</v>
+        <v>0.1131462577495341</v>
       </c>
       <c r="I13">
-        <v>0.001391556642844627</v>
+        <v>0.00176697795779468</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2081278482131381</v>
+        <v>0.1885628501371581</v>
       </c>
       <c r="L13">
-        <v>0.09656414334592611</v>
+        <v>0.09903200983042826</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05163775380130708</v>
       </c>
       <c r="N13">
-        <v>0.3072228478355754</v>
+        <v>0.09858840302410243</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3207255524060031</v>
       </c>
       <c r="Q13">
-        <v>1.300170192087464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.196587220110274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.461437512548571</v>
+        <v>5.468461017119068</v>
       </c>
       <c r="C14">
-        <v>1.012965275320909</v>
+        <v>1.047077536069821</v>
       </c>
       <c r="D14">
-        <v>0.06656938152247704</v>
+        <v>0.06856814247631604</v>
       </c>
       <c r="E14">
-        <v>0.04146582099300478</v>
+        <v>0.04167675167861251</v>
       </c>
       <c r="F14">
-        <v>0.4958926724436523</v>
+        <v>0.4671193231965063</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1625365356426016</v>
+        <v>0.1624776487076787</v>
       </c>
       <c r="I14">
-        <v>0.001411844088931247</v>
+        <v>0.001742847662085545</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.1979077383007244</v>
+        <v>0.1815100919857988</v>
       </c>
       <c r="L14">
-        <v>0.1111525315541968</v>
+        <v>0.09708779723262584</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04775090813528937</v>
       </c>
       <c r="N14">
-        <v>0.259016464524592</v>
+        <v>0.1132726094943024</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2698177496964576</v>
       </c>
       <c r="Q14">
-        <v>1.181908378535496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.096974993204029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.4025487139441</v>
+        <v>5.409626314619175</v>
       </c>
       <c r="C15">
-        <v>1.011168484823628</v>
+        <v>1.04255076994977</v>
       </c>
       <c r="D15">
-        <v>0.06482050645050208</v>
+        <v>0.06672888193461546</v>
       </c>
       <c r="E15">
-        <v>0.04187080536294285</v>
+        <v>0.04211236130266194</v>
       </c>
       <c r="F15">
-        <v>0.4834580878971053</v>
+        <v>0.4563516799079963</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1750610683862988</v>
+        <v>0.1749847662327824</v>
       </c>
       <c r="I15">
-        <v>0.001529995640961346</v>
+        <v>0.001856287803209788</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.1965689649270983</v>
+        <v>0.1808385374735897</v>
       </c>
       <c r="L15">
-        <v>0.1148793330504532</v>
+        <v>0.09695194869022039</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0470933837466907</v>
       </c>
       <c r="N15">
-        <v>0.246589123314692</v>
+        <v>0.1169457264794005</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2566999595686497</v>
       </c>
       <c r="Q15">
-        <v>1.15263159826408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.072505279202673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.066794161980113</v>
+        <v>5.074053738258726</v>
       </c>
       <c r="C16">
-        <v>0.952657031700312</v>
+        <v>0.9787918163406744</v>
       </c>
       <c r="D16">
-        <v>0.06261787717134126</v>
+        <v>0.0644769190395138</v>
       </c>
       <c r="E16">
-        <v>0.04121356465717696</v>
+        <v>0.04144279431715159</v>
       </c>
       <c r="F16">
-        <v>0.4832427599219358</v>
+        <v>0.4572894200245656</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1624685517640216</v>
+        <v>0.1622850929116879</v>
       </c>
       <c r="I16">
-        <v>0.00174400615199044</v>
+        <v>0.001933484109197359</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2068665456323613</v>
+        <v>0.1905111627468319</v>
       </c>
       <c r="L16">
-        <v>0.1099956877891444</v>
+        <v>0.1001797417748715</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04973742428508476</v>
       </c>
       <c r="N16">
-        <v>0.2351754651605233</v>
+        <v>0.1116685726174325</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2447325890349248</v>
       </c>
       <c r="Q16">
-        <v>1.159013629517332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.081821496987544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.861411973363147</v>
+        <v>4.868710243209762</v>
       </c>
       <c r="C17">
-        <v>0.9013495608080575</v>
+        <v>0.928103203345529</v>
       </c>
       <c r="D17">
-        <v>0.06427716877315248</v>
+        <v>0.06627835919525893</v>
       </c>
       <c r="E17">
-        <v>0.03993488724748895</v>
+        <v>0.04009043908888099</v>
       </c>
       <c r="F17">
-        <v>0.5089021947631096</v>
+        <v>0.4806165896955861</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.124826770341528</v>
+        <v>0.124573209256809</v>
       </c>
       <c r="I17">
-        <v>0.001956575305302799</v>
+        <v>0.002060752992758097</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.2199445739528976</v>
+        <v>0.2016176607470763</v>
       </c>
       <c r="L17">
-        <v>0.09792269294493039</v>
+        <v>0.1040477980791277</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05353185920373171</v>
       </c>
       <c r="N17">
-        <v>0.2512761216325856</v>
+        <v>0.09933063451051183</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2617472692216865</v>
       </c>
       <c r="Q17">
-        <v>1.225793879553407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.141500769510188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.744162183606932</v>
+        <v>4.75144869327562</v>
       </c>
       <c r="C18">
-        <v>0.848895454608197</v>
+        <v>0.8809993470245843</v>
       </c>
       <c r="D18">
-        <v>0.06954677912145968</v>
+        <v>0.0718906019698764</v>
       </c>
       <c r="E18">
-        <v>0.03954803422345032</v>
+        <v>0.0395180949953432</v>
       </c>
       <c r="F18">
-        <v>0.5631869775758389</v>
+        <v>0.5288476111619929</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07205753556679184</v>
+        <v>0.07178249446913298</v>
       </c>
       <c r="I18">
-        <v>0.001802281019292806</v>
+        <v>0.001825231455317322</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.2394176820083054</v>
+        <v>0.2172147285902408</v>
       </c>
       <c r="L18">
-        <v>0.08189457135390654</v>
+        <v>0.1098008624521976</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05921334025353175</v>
       </c>
       <c r="N18">
-        <v>0.2950596564195251</v>
+        <v>0.08292234719189651</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3080106204512276</v>
       </c>
       <c r="Q18">
-        <v>1.361302384054568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.259082541660732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.705774493017827</v>
+        <v>4.713016475374957</v>
       </c>
       <c r="C19">
-        <v>0.8058279950556937</v>
+        <v>0.846141932904203</v>
       </c>
       <c r="D19">
-        <v>0.07783104911771233</v>
+        <v>0.08068373238754845</v>
       </c>
       <c r="E19">
-        <v>0.04220558040614097</v>
+        <v>0.04183119854077244</v>
       </c>
       <c r="F19">
-        <v>0.6368978589649572</v>
+        <v>0.5934699754877215</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672492775359814</v>
+        <v>0.0264878497326535</v>
       </c>
       <c r="I19">
-        <v>0.001882307616436485</v>
+        <v>0.001950565117624592</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.2643424488058841</v>
+        <v>0.2364553703502175</v>
       </c>
       <c r="L19">
-        <v>0.06949986533610364</v>
+        <v>0.1170326827170367</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06643498313851914</v>
       </c>
       <c r="N19">
-        <v>0.3635773036648118</v>
+        <v>0.06976528751781963</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.38041123192356</v>
       </c>
       <c r="Q19">
-        <v>1.541829737061562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.412916517847577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.889852625355672</v>
+        <v>4.896915393015206</v>
       </c>
       <c r="C20">
-        <v>0.7799313625313857</v>
+        <v>0.8364194892632213</v>
       </c>
       <c r="D20">
-        <v>0.09403537557785313</v>
+        <v>0.09786843210238061</v>
       </c>
       <c r="E20">
-        <v>0.05285961813748763</v>
+        <v>0.05167115485255458</v>
       </c>
       <c r="F20">
-        <v>0.7681540885634561</v>
+        <v>0.7067270263846339</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0001923586798726618</v>
+        <v>0.000130620506817003</v>
       </c>
       <c r="I20">
-        <v>0.001694099632451262</v>
+        <v>0.001944782827298042</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3052087270122783</v>
+        <v>0.2661939262315691</v>
       </c>
       <c r="L20">
-        <v>0.0658605204676368</v>
+        <v>0.1273519488360897</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07923331096164432</v>
       </c>
       <c r="N20">
-        <v>0.4972302499535317</v>
+        <v>0.06422095882804335</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5219218199968481</v>
       </c>
       <c r="Q20">
-        <v>1.858371581211287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.676941405943239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.498548770549633</v>
+        <v>5.505057389467652</v>
       </c>
       <c r="C21">
-        <v>0.8633026631600558</v>
+        <v>0.9346241677752118</v>
       </c>
       <c r="D21">
-        <v>0.1037027682836538</v>
+        <v>0.1080131759963692</v>
       </c>
       <c r="E21">
-        <v>0.05637663772340495</v>
+        <v>0.05483269056071016</v>
       </c>
       <c r="F21">
-        <v>0.8153490552051892</v>
+        <v>0.7447147576212245</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9.869658951267013E-05</v>
+        <v>0.0001945523400459503</v>
       </c>
       <c r="I21">
-        <v>0.001743620469842888</v>
+        <v>0.002243261518017903</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.3010079840843467</v>
+        <v>0.2584707726678879</v>
       </c>
       <c r="L21">
-        <v>0.06835877481533947</v>
+        <v>0.1216726099320216</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08167366770123863</v>
       </c>
       <c r="N21">
-        <v>0.565179339386674</v>
+        <v>0.06643813034631285</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5939783944780572</v>
       </c>
       <c r="Q21">
-        <v>1.959660523734698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.752213403651041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.896703447495327</v>
+        <v>5.902623490002611</v>
       </c>
       <c r="C22">
-        <v>0.917371526451177</v>
+        <v>0.9979231520484575</v>
       </c>
       <c r="D22">
-        <v>0.1092254396961891</v>
+        <v>0.1138099169996849</v>
       </c>
       <c r="E22">
-        <v>0.05808801697458499</v>
+        <v>0.05634622416666524</v>
       </c>
       <c r="F22">
-        <v>0.8437137881953873</v>
+        <v>0.7674845889521791</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0004541840826564059</v>
+        <v>0.000607320145603607</v>
       </c>
       <c r="I22">
-        <v>0.001829126706026862</v>
+        <v>0.002366013862816985</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.2979253272493914</v>
+        <v>0.2533077210039245</v>
       </c>
       <c r="L22">
-        <v>0.06984302281282573</v>
+        <v>0.117866292161704</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08373091720200421</v>
       </c>
       <c r="N22">
-        <v>0.6027130811732349</v>
+        <v>0.06783793706599317</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6338821600811855</v>
       </c>
       <c r="Q22">
-        <v>2.021663368118965</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.798341047248925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.684231830075873</v>
+        <v>5.690490089340358</v>
       </c>
       <c r="C23">
-        <v>0.8854843324325827</v>
+        <v>0.9610347547207141</v>
       </c>
       <c r="D23">
-        <v>0.1061413377631268</v>
+        <v>0.1105816713930849</v>
       </c>
       <c r="E23">
-        <v>0.05724417233601997</v>
+        <v>0.05560280157055075</v>
       </c>
       <c r="F23">
-        <v>0.8310430443293484</v>
+        <v>0.7575917979920206</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0002344397611686588</v>
+        <v>0.0003611822377793672</v>
       </c>
       <c r="I23">
-        <v>0.001450086863957978</v>
+        <v>0.001911986699531631</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.3009066742070345</v>
+        <v>0.2571721008347616</v>
       </c>
       <c r="L23">
-        <v>0.06911527173205423</v>
+        <v>0.120257085367772</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08306821217208338</v>
       </c>
       <c r="N23">
-        <v>0.5816818945341424</v>
+        <v>0.06713577257684267</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6115982378229035</v>
       </c>
       <c r="Q23">
-        <v>1.995778259755639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.780239225502498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.880291795633582</v>
+        <v>4.887351917849799</v>
       </c>
       <c r="C24">
-        <v>0.7701722123126444</v>
+        <v>0.8271996916395778</v>
       </c>
       <c r="D24">
-        <v>0.09474979602908462</v>
+        <v>0.09864903680939108</v>
       </c>
       <c r="E24">
-        <v>0.0539364653145995</v>
+        <v>0.05267927242951842</v>
       </c>
       <c r="F24">
-        <v>0.7809643718721375</v>
+        <v>0.7180643188467783</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6.303141755537034E-05</v>
+        <v>8.175714789837585E-06</v>
       </c>
       <c r="I24">
-        <v>0.0011976937489937</v>
+        <v>0.00135242572779859</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3111115444042731</v>
+        <v>0.2709177405606731</v>
       </c>
       <c r="L24">
-        <v>0.06622789709070021</v>
+        <v>0.1291092161299758</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08101373819960678</v>
       </c>
       <c r="N24">
-        <v>0.5039829255681809</v>
+        <v>0.06438133926982503</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.529194880150925</v>
       </c>
       <c r="Q24">
-        <v>1.891882823505597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.705993270056695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.014097662877816</v>
+        <v>4.021161852710804</v>
       </c>
       <c r="C25">
-        <v>0.6466287833274009</v>
+        <v>0.684323762158499</v>
       </c>
       <c r="D25">
-        <v>0.0825871246648191</v>
+        <v>0.08592381453944142</v>
       </c>
       <c r="E25">
-        <v>0.05036016283297506</v>
+        <v>0.04950783360377109</v>
       </c>
       <c r="F25">
-        <v>0.7310480242396196</v>
+        <v>0.6788425405878513</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.001157410067333386</v>
+        <v>0.0007510262784521382</v>
       </c>
       <c r="I25">
-        <v>0.00231538626097727</v>
+        <v>0.00191468871257694</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3244650240566997</v>
+        <v>0.2876880192156328</v>
       </c>
       <c r="L25">
-        <v>0.06303753116991107</v>
+        <v>0.1394482149457232</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08143823155397456</v>
       </c>
       <c r="N25">
-        <v>0.4207441395575842</v>
+        <v>0.06134196782042067</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4410283368943908</v>
       </c>
       <c r="Q25">
-        <v>1.792265866190206</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.636237857947634</v>
       </c>
     </row>
   </sheetData>
